--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF469957-8705-495B-A11F-9788586BBB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92817230-F83D-4977-B85B-0EF3560D0521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Projektorganisation und Meetings</t>
   </si>
   <si>
-    <t>Blogeinträge verfassen</t>
-  </si>
-  <si>
     <t>Design Prototyping</t>
   </si>
   <si>
@@ -150,6 +147,39 @@
   </si>
   <si>
     <t>Teammeeting</t>
+  </si>
+  <si>
+    <t>Aufwandsschätzung</t>
+  </si>
+  <si>
+    <t>Graph-QL</t>
+  </si>
+  <si>
+    <t>REST Pros Cons</t>
+  </si>
+  <si>
+    <t>Recherche Docker</t>
+  </si>
+  <si>
+    <t>SQL-DB Pros Cons ( H2 - Oracle XE - MySQL gratis? - SQLite)</t>
+  </si>
+  <si>
+    <t>Queues Pros Cons (RabbitMQ)</t>
+  </si>
+  <si>
+    <t>Key/value Pros Cons (Redis - Hazelcast)</t>
+  </si>
+  <si>
+    <t>Graph-DB Pros Cons (neo4j)</t>
+  </si>
+  <si>
+    <t>Setup Github</t>
+  </si>
+  <si>
+    <t>Setup Docker</t>
+  </si>
+  <si>
+    <t>Dokumenten-DB Pros Cons (MongoDB - Couchbase)</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1387,7 +1417,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1427,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>23</v>
@@ -1438,161 +1468,237 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1" ht="15.75">
-      <c r="A9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1" ht="15.75">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" ht="15.75">
-      <c r="A11" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1" ht="15.75">
-      <c r="A14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>27</v>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" ht="15.75">
-      <c r="A15" s="16" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="15" customFormat="1" ht="15.75">
-      <c r="A16" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="15" customFormat="1" ht="15.75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="19" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="21" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="22" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" s="15" customFormat="1" ht="15.75">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" s="19" customFormat="1" ht="15.75">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" s="15" customFormat="1" ht="15.75">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-    </row>
-    <row r="26" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:2" s="15" customFormat="1" ht="15.75">
+      <c r="A23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="15" customFormat="1" ht="15.75">
+      <c r="A24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="15" customFormat="1" ht="15.75">
+      <c r="A25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" s="15" customFormat="1" ht="15.75">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29" spans="1:3" s="15" customFormat="1" ht="15.75">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-    </row>
-    <row r="30" spans="1:3" s="15" customFormat="1" ht="15.75">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:2" s="15" customFormat="1" ht="15.75">
+      <c r="A28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="15" customFormat="1" ht="15.75">
+      <c r="A29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="15" customFormat="1" ht="15.75">
+      <c r="A30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
     </row>
-    <row r="35" spans="1:3" s="19" customFormat="1" ht="15.75">
-      <c r="A35" s="20"/>
+    <row r="35" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A35" s="16"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:3" s="19" customFormat="1" ht="15.75">
-      <c r="A36" s="20"/>
+    </row>
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A36" s="16"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" s="19" customFormat="1" ht="15.75">
-      <c r="A37" s="20"/>
+    </row>
+    <row r="37" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A37" s="16"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" s="19" customFormat="1" ht="15.75">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="1:3" s="15" customFormat="1" ht="15.75">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:3" s="19" customFormat="1" ht="15.75">
+      <c r="A49" s="20"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:3" s="19" customFormat="1" ht="15.75">
+      <c r="A50" s="20"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:3" s="19" customFormat="1" ht="15.75">
+      <c r="A51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="15"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1672,7 +1778,7 @@
     </row>
     <row r="5" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A5" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -1687,7 +1793,7 @@
     </row>
     <row r="6" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A6" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -1702,7 +1808,7 @@
     </row>
     <row r="7" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A7" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -1714,7 +1820,7 @@
     </row>
     <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A8" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6235,7 +6341,7 @@
     </row>
     <row r="7" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>
@@ -6532,7 +6638,7 @@
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>
@@ -19142,7 +19248,7 @@
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>
@@ -31654,8 +31760,8 @@
   </sheetPr>
   <dimension ref="A1:G917"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -31752,7 +31858,7 @@
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>
@@ -31867,7 +31973,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="81" t="str">
-        <f t="shared" ref="A11:A32" si="2">IF(B14&lt;&gt;"",TEXT(B14,"TTT"),"")</f>
+        <f t="shared" ref="A14:A32" si="2">IF(B14&lt;&gt;"",TEXT(B14,"TTT"),"")</f>
         <v/>
       </c>
       <c r="B14" s="86"/>

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92817230-F83D-4977-B85B-0EF3560D0521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AF050B-533E-9A4C-B9E8-7136EF34B133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -180,6 +178,9 @@
   </si>
   <si>
     <t>Dokumenten-DB Pros Cons (MongoDB - Couchbase)</t>
+  </si>
+  <si>
+    <t>Samed</t>
   </si>
 </sst>
 </file>
@@ -1404,18 +1405,18 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="23"/>
-    <col min="4" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="6.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="23"/>
+    <col min="4" max="16384" width="11.5" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1425,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="D2" s="8"/>
@@ -1432,7 +1433,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="16">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1441,7 +1442,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -1471,91 +1472,97 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="15.75">
+      <c r="C7" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="15.75">
+      <c r="C8" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="17" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="18" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="19" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="20" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="21" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="22" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A22" s="16"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="23" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A23" s="13" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="24" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A24" s="16" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="25" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
@@ -1579,15 +1586,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="26" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="27" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="28" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="29" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A29" s="16" t="s">
         <v>6</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="30" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A30" s="16" t="s">
         <v>7</v>
       </c>
@@ -1611,91 +1618,91 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="31" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="32" spans="1:2" s="15" customFormat="1" ht="16">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
     </row>
-    <row r="33" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="33" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="34" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
     </row>
-    <row r="35" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="35" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
     </row>
-    <row r="36" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
     </row>
-    <row r="37" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="37" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
     </row>
-    <row r="38" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="38" spans="1:3" s="19" customFormat="1" ht="16">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="39" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="40" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="41" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
     </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="42" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
     </row>
-    <row r="43" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="43" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="44" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
     </row>
-    <row r="45" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="45" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
     </row>
-    <row r="46" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="46" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
     </row>
-    <row r="47" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="47" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="48" spans="1:3" s="15" customFormat="1" ht="16">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="49" spans="1:3" s="19" customFormat="1" ht="16">
       <c r="A49" s="20"/>
       <c r="B49" s="17"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="50" spans="1:3" s="19" customFormat="1" ht="16">
       <c r="A50" s="20"/>
       <c r="B50" s="17"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="51" spans="1:3" s="19" customFormat="1" ht="16">
       <c r="A51" s="20"/>
       <c r="B51" s="17"/>
       <c r="C51" s="15"/>
@@ -1725,17 +1732,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="49"/>
+    <col min="1" max="1" width="5.5" style="50" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -1745,7 +1752,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1763,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="16">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1765,7 +1772,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A5" s="29" t="s">
         <v>35</v>
       </c>
@@ -1791,7 +1798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A6" s="29" t="s">
         <v>29</v>
       </c>
@@ -1806,7 +1813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -1818,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A8" s="35" t="s">
         <v>36</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="16.5" thickBot="1">
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="17" thickBot="1">
       <c r="A9" s="38" t="str">
         <f t="shared" ref="A9:A47" si="0">IF(B9&lt;&gt;"",TEXT(B9,"TTT"),"")</f>
         <v/>
@@ -1843,7 +1850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="44" customFormat="1" ht="13.5" thickTop="1">
+    <row r="10" spans="1:7" s="44" customFormat="1" ht="15" thickTop="1">
       <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6248,19 +6255,19 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="98" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="99" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="100" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="101"/>
+    <col min="1" max="1" width="5.5" style="95" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="96" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="98" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="100" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -6272,7 +6279,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:9" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Samed Esen</v>
@@ -6284,7 +6291,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:9" s="112" customFormat="1" ht="15.75">
+    <row r="3" spans="1:9" s="112" customFormat="1" ht="16">
       <c r="B3" s="69"/>
       <c r="C3" s="70"/>
       <c r="D3" s="113"/>
@@ -6292,7 +6299,7 @@
       <c r="F3" s="115"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6307,7 +6314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6316,7 +6323,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6339,7 +6346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -6364,7 +6371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -6379,7 +6386,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="87"/>
@@ -6394,7 +6401,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" s="94" customFormat="1" ht="15.75">
+    <row r="10" spans="1:9" s="94" customFormat="1" ht="16">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
       <c r="C10" s="87"/>
@@ -6409,7 +6416,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="87"/>
@@ -6424,7 +6431,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="81"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -6439,7 +6446,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="81"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -6454,73 +6461,73 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="81"/>
       <c r="F14" s="85"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="81"/>
       <c r="F15" s="85"/>
       <c r="G15" s="31"/>
       <c r="I15" s="100"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="81"/>
       <c r="F16" s="85"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="81"/>
       <c r="F17" s="85"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="81"/>
       <c r="F18" s="85"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="81"/>
       <c r="F19" s="85"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="81"/>
       <c r="D20" s="99"/>
       <c r="F20" s="85"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="81"/>
       <c r="F21" s="85"/>
       <c r="G21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="81"/>
       <c r="F22" s="85"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="81"/>
       <c r="F23" s="85"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="81"/>
       <c r="F24" s="85"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="81"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="81"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="81"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="81"/>
     </row>
   </sheetData>
@@ -6544,19 +6551,19 @@
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="92" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -6568,7 +6575,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Sabine Lindner</v>
@@ -6580,7 +6587,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -6589,7 +6596,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6604,7 +6611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6613,7 +6620,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6636,7 +6643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -6661,7 +6668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -6676,7 +6683,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A9" s="81"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
@@ -19154,19 +19161,19 @@
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -19178,7 +19185,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Paul Pühringer</v>
@@ -19190,7 +19197,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -19199,7 +19206,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -19214,7 +19221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -19223,7 +19230,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -19246,7 +19253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -19271,7 +19278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -19286,7 +19293,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A9" s="81"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
@@ -31764,19 +31771,19 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
     <col min="5" max="5" width="21" style="92" customWidth="1"/>
     <col min="6" max="6" width="38" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -31788,7 +31795,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Deutsch Thomas</v>
@@ -31800,7 +31807,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -31809,7 +31816,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -31824,7 +31831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -31833,7 +31840,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -31856,7 +31863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -31881,7 +31888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -31896,7 +31903,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="83"/>
@@ -31911,7 +31918,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A10" s="81"/>
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
@@ -31926,7 +31933,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="81"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -31941,7 +31948,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="81"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
@@ -31956,7 +31963,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="81"/>
       <c r="B13" s="86"/>
       <c r="C13" s="87"/>
@@ -31971,7 +31978,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="81" t="str">
         <f t="shared" ref="A14:A32" si="2">IF(B14&lt;&gt;"",TEXT(B14,"TTT"),"")</f>
         <v/>
@@ -31986,7 +31993,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32001,7 +32008,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32016,7 +32023,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32031,7 +32038,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32046,7 +32053,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32061,7 +32068,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32076,7 +32083,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32091,7 +32098,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32106,7 +32113,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32121,7 +32128,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32136,7 +32143,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32151,7 +32158,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32166,7 +32173,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32181,7 +32188,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32196,7 +32203,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32211,7 +32218,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32226,7 +32233,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32241,7 +32248,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AF050B-533E-9A4C-B9E8-7136EF34B133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638572B6-D0F4-40F7-9087-B29FEFA7AE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -181,6 +183,12 @@
   </si>
   <si>
     <t>Samed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabine </t>
+  </si>
+  <si>
+    <t>Sabine</t>
   </si>
 </sst>
 </file>
@@ -1405,18 +1413,18 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="23"/>
-    <col min="4" max="16384" width="11.5" style="24"/>
+    <col min="1" max="1" width="6.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="23"/>
+    <col min="4" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1425,7 +1433,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="D2" s="8"/>
@@ -1433,7 +1441,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="16">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1442,7 +1450,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>40</v>
@@ -1481,7 +1489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>41</v>
@@ -1490,79 +1498,85 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="16">
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="16">
+      <c r="E12" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="16">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="17" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="18" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="19" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="20" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="21" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="22" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A22" s="16"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="23" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A23" s="13" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="24" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A24" s="16" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="25" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
@@ -1586,15 +1600,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="26" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="27" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="28" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="29" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A29" s="16" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="30" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A30" s="16" t="s">
         <v>7</v>
       </c>
@@ -1618,91 +1632,91 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="31" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" ht="16">
+    <row r="32" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
     </row>
-    <row r="33" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="33" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="34" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
     </row>
-    <row r="35" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="35" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
     </row>
-    <row r="36" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
     </row>
-    <row r="37" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="37" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
     </row>
-    <row r="38" spans="1:3" s="19" customFormat="1" ht="16">
+    <row r="38" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="39" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="40" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="41" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
     </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="42" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
     </row>
-    <row r="43" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="43" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="44" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
     </row>
-    <row r="45" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="45" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
     </row>
-    <row r="46" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="46" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
     </row>
-    <row r="47" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="47" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:3" s="15" customFormat="1" ht="16">
+    <row r="48" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="1:3" s="19" customFormat="1" ht="16">
+    <row r="49" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A49" s="20"/>
       <c r="B49" s="17"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" s="19" customFormat="1" ht="16">
+    <row r="50" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A50" s="20"/>
       <c r="B50" s="17"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" s="19" customFormat="1" ht="16">
+    <row r="51" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A51" s="20"/>
       <c r="B51" s="17"/>
       <c r="C51" s="15"/>
@@ -1732,17 +1746,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="49"/>
+    <col min="1" max="1" width="5.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -1752,7 +1766,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1777,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="16">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1772,7 +1786,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="16">
+    <row r="4" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="28" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A5" s="29" t="s">
         <v>35</v>
       </c>
@@ -1798,7 +1812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A6" s="29" t="s">
         <v>29</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="28" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" ht="16">
+    <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A8" s="35" t="s">
         <v>36</v>
       </c>
@@ -1837,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="17" thickBot="1">
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="38" t="str">
         <f t="shared" ref="A9:A47" si="0">IF(B9&lt;&gt;"",TEXT(B9,"TTT"),"")</f>
         <v/>
@@ -1850,7 +1864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="44" customFormat="1" ht="15" thickTop="1">
+    <row r="10" spans="1:7" s="44" customFormat="1" ht="13.5" thickTop="1">
       <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6255,19 +6269,19 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="95" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="96" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="97" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="99" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="100" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="101"/>
+    <col min="1" max="1" width="5.42578125" style="95" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="96" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="97" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="100" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="37">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -6279,7 +6293,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="26">
+    <row r="2" spans="1:9" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Samed Esen</v>
@@ -6291,7 +6305,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:9" s="112" customFormat="1" ht="16">
+    <row r="3" spans="1:9" s="112" customFormat="1" ht="15.75">
       <c r="B3" s="69"/>
       <c r="C3" s="70"/>
       <c r="D3" s="113"/>
@@ -6299,7 +6313,7 @@
       <c r="F3" s="115"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="16">
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6314,7 +6328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="16">
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6323,7 +6337,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:9" s="74" customFormat="1" ht="16">
+    <row r="6" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6346,7 +6360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="74" customFormat="1" ht="16">
+    <row r="7" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -6371,7 +6385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="74" customFormat="1" ht="16">
+    <row r="8" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -6386,7 +6400,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" s="74" customFormat="1" ht="16">
+    <row r="9" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="87"/>
@@ -6401,7 +6415,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" s="94" customFormat="1" ht="16">
+    <row r="10" spans="1:9" s="94" customFormat="1" ht="15.75">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
       <c r="C10" s="87"/>
@@ -6416,7 +6430,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="87"/>
@@ -6431,7 +6445,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="81"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -6446,7 +6460,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="81"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -6461,73 +6475,73 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="81"/>
       <c r="F14" s="85"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="16">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="81"/>
       <c r="F15" s="85"/>
       <c r="G15" s="31"/>
       <c r="I15" s="100"/>
     </row>
-    <row r="16" spans="1:9" ht="16">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="81"/>
       <c r="F16" s="85"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:10" ht="16">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="81"/>
       <c r="F17" s="85"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:10" ht="16">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="81"/>
       <c r="F18" s="85"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:10" ht="16">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="81"/>
       <c r="F19" s="85"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:10" ht="16">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="81"/>
       <c r="D20" s="99"/>
       <c r="F20" s="85"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="16">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="81"/>
       <c r="F21" s="85"/>
       <c r="G21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="16">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="81"/>
       <c r="F22" s="85"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:10" ht="16">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="81"/>
       <c r="F23" s="85"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:10" ht="16">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="81"/>
       <c r="F24" s="85"/>
     </row>
-    <row r="25" spans="1:10" ht="16">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="81"/>
     </row>
-    <row r="26" spans="1:10" ht="16">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="81"/>
     </row>
-    <row r="27" spans="1:10" ht="16">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="81"/>
     </row>
-    <row r="28" spans="1:10" ht="16">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="81"/>
     </row>
   </sheetData>
@@ -6551,19 +6565,19 @@
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="94"/>
+    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="92" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -6575,7 +6589,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Sabine Lindner</v>
@@ -6587,7 +6601,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -6596,7 +6610,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6611,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6620,7 +6634,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6643,7 +6657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -6668,7 +6682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -6683,7 +6697,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
@@ -19161,19 +19175,19 @@
       <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="94"/>
+    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="37">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -19185,7 +19199,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Paul Pühringer</v>
@@ -19197,7 +19211,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -19206,7 +19220,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -19221,7 +19235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -19230,7 +19244,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -19253,7 +19267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -19278,7 +19292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -19293,7 +19307,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
@@ -31771,19 +31785,19 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
     <col min="5" max="5" width="21" style="92" customWidth="1"/>
     <col min="6" max="6" width="38" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="94"/>
+    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="37">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR</v>
@@ -31795,7 +31809,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Deutsch Thomas</v>
@@ -31807,7 +31821,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -31816,7 +31830,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -31831,7 +31845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -31840,7 +31854,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -31863,7 +31877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>37</v>
       </c>
@@ -31888,7 +31902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -31903,7 +31917,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="83"/>
@@ -31918,7 +31932,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" s="74" customFormat="1" ht="16">
+    <row r="10" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A10" s="81"/>
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
@@ -31933,7 +31947,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="81"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -31948,7 +31962,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="81"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
@@ -31963,7 +31977,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="81"/>
       <c r="B13" s="86"/>
       <c r="C13" s="87"/>
@@ -31978,7 +31992,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="81" t="str">
         <f t="shared" ref="A14:A32" si="2">IF(B14&lt;&gt;"",TEXT(B14,"TTT"),"")</f>
         <v/>
@@ -31993,7 +32007,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32008,7 +32022,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32023,7 +32037,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16">
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32038,7 +32052,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32053,7 +32067,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32068,7 +32082,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32083,7 +32097,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32098,7 +32112,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32113,7 +32127,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32128,7 +32142,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32143,7 +32157,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32158,7 +32172,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32173,7 +32187,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32188,7 +32202,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32203,7 +32217,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32218,7 +32232,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32233,7 +32247,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32248,7 +32262,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638572B6-D0F4-40F7-9087-B29FEFA7AE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786B380-2941-4BC5-A80C-19EE6A1A1245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Projekt aufsetzen</t>
   </si>
   <si>
-    <t>DKE-PR</t>
-  </si>
-  <si>
     <t>Samed Esen</t>
   </si>
   <si>
@@ -189,6 +186,21 @@
   </si>
   <si>
     <t>Sabine</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>DKE-PR 258.322 (Tanzer)</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>Recherche Technologien</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1426,7 +1438,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1466,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>23</v>
@@ -1476,85 +1488,95 @@
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>39</v>
+      <c r="B6" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="15" customFormat="1" ht="15.75">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A18" s="16"/>
@@ -1759,7 +1781,7 @@
     <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
-        <v>DKE-PR</v>
+        <v>DKE-PR 258.322 (Tanzer)</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1799,7 +1821,7 @@
     </row>
     <row r="5" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A5" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -1841,7 +1863,7 @@
     </row>
     <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A8" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -6284,7 +6306,7 @@
     <row r="1" spans="1:9" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
-        <v>DKE-PR</v>
+        <v>DKE-PR 258.322 (Tanzer)</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -6362,7 +6384,7 @@
     </row>
     <row r="7" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>
@@ -6580,7 +6602,7 @@
     <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
-        <v>DKE-PR</v>
+        <v>DKE-PR 258.322 (Tanzer)</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -6659,7 +6681,7 @@
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>
@@ -19171,8 +19193,8 @@
   </sheetPr>
   <dimension ref="A1:G916"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -19182,7 +19204,7 @@
     <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
@@ -19190,7 +19212,7 @@
     <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
-        <v>DKE-PR</v>
+        <v>DKE-PR 258.322 (Tanzer)</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
@@ -19269,7 +19291,7 @@
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>
@@ -19293,18 +19315,24 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="82">
+        <v>44116</v>
+      </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85" t="e">
+      <c r="E8" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="85" t="str">
         <f>VLOOKUP(E8,Aufgaben!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="31" t="str">
+        <v>Recherche Technologien</v>
+      </c>
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
@@ -31800,7 +31828,7 @@
     <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
-        <v>DKE-PR</v>
+        <v>DKE-PR 258.322 (Tanzer)</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="53"/>
@@ -31879,7 +31907,7 @@
     </row>
     <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="82">
         <v>44113</v>

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F786B380-2941-4BC5-A80C-19EE6A1A1245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A188B70A-8618-4A1D-925C-69AF328F52EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Recherche Technologien</t>
+  </si>
+  <si>
+    <t>So</t>
   </si>
 </sst>
 </file>
@@ -1424,19 +1427,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="23"/>
-    <col min="4" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="6.44140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="23"/>
+    <col min="4" max="16384" width="11.44140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36.6">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1445,7 +1448,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="25.8">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="D2" s="8"/>
@@ -1453,7 +1456,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.6">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1462,7 +1465,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>39</v>
@@ -1501,7 +1504,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>40</v>
@@ -1510,7 +1513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
         <v>41</v>
@@ -1519,7 +1522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
         <v>48</v>
@@ -1528,7 +1531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
         <v>45</v>
@@ -1537,7 +1540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
         <v>42</v>
@@ -1546,31 +1549,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.6">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" ht="15.75">
+      <c r="E16" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A17" s="16" t="s">
         <v>55</v>
       </c>
@@ -1578,27 +1584,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="18" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="19" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="20" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="21" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="22" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A22" s="16"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="23" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="24" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A24" s="16" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="25" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
@@ -1622,15 +1628,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="26" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="27" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="28" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="29" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A29" s="16" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="30" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A30" s="16" t="s">
         <v>7</v>
       </c>
@@ -1654,91 +1660,91 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="31" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" ht="15.75">
+    <row r="32" spans="1:2" s="15" customFormat="1" ht="15.6">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
     </row>
-    <row r="33" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="33" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="34" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
     </row>
-    <row r="35" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="35" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
     </row>
-    <row r="36" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
     </row>
-    <row r="37" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="37" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
     </row>
-    <row r="38" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="38" spans="1:3" s="19" customFormat="1" ht="15.6">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="39" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="40" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="41" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
     </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="42" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
     </row>
-    <row r="43" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="43" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="44" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
     </row>
-    <row r="45" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="45" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
     </row>
-    <row r="46" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="46" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
     </row>
-    <row r="47" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="47" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:3" s="15" customFormat="1" ht="15.75">
+    <row r="48" spans="1:3" s="15" customFormat="1" ht="15.6">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="49" spans="1:3" s="19" customFormat="1" ht="15.6">
       <c r="A49" s="20"/>
       <c r="B49" s="17"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="50" spans="1:3" s="19" customFormat="1" ht="15.6">
       <c r="A50" s="20"/>
       <c r="B50" s="17"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" s="19" customFormat="1" ht="15.75">
+    <row r="51" spans="1:3" s="19" customFormat="1" ht="15.6">
       <c r="A51" s="20"/>
       <c r="B51" s="17"/>
       <c r="C51" s="15"/>
@@ -1768,17 +1774,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="49"/>
+    <col min="1" max="1" width="5.44140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.88671875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36.6">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -1788,7 +1794,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="25.8">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1799,7 +1805,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.6">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1808,7 +1814,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="28" customFormat="1" ht="15.6">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="28" customFormat="1" ht="15.6">
       <c r="A5" s="29" t="s">
         <v>34</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="28" customFormat="1" ht="15.6">
       <c r="A6" s="29" t="s">
         <v>29</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="28" customFormat="1" ht="15.6">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="28" customFormat="1" ht="15.6">
       <c r="A8" s="35" t="s">
         <v>35</v>
       </c>
@@ -1870,10 +1876,10 @@
       <c r="D8" s="36"/>
       <c r="E8" s="37">
         <f ca="1">INDIRECT("'"&amp;A8&amp;"'!G4")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="16.5" thickBot="1">
+        <v>6.5000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="16.2" thickBot="1">
       <c r="A9" s="38" t="str">
         <f t="shared" ref="A9:A47" si="0">IF(B9&lt;&gt;"",TEXT(B9,"TTT"),"")</f>
         <v/>
@@ -1883,10 +1889,10 @@
       <c r="D9" s="39"/>
       <c r="E9" s="40">
         <f ca="1">SUM(E5:E8)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="44" customFormat="1" ht="13.5" thickTop="1">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="44" customFormat="1" ht="14.4" thickTop="1">
       <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1896,7 +1902,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
     </row>
-    <row r="11" spans="1:7" s="44" customFormat="1">
+    <row r="11" spans="1:7" s="44" customFormat="1" ht="13.8">
       <c r="A11" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1906,7 +1912,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:7" s="44" customFormat="1">
+    <row r="12" spans="1:7" s="44" customFormat="1" ht="13.8">
       <c r="A12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1916,7 +1922,7 @@
       <c r="D12" s="42"/>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:7" s="44" customFormat="1">
+    <row r="13" spans="1:7" s="44" customFormat="1" ht="13.8">
       <c r="A13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1926,7 +1932,7 @@
       <c r="D13" s="42"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:7" s="44" customFormat="1">
+    <row r="14" spans="1:7" s="44" customFormat="1" ht="13.8">
       <c r="A14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1936,7 +1942,7 @@
       <c r="D14" s="42"/>
       <c r="E14" s="43"/>
     </row>
-    <row r="15" spans="1:7" s="44" customFormat="1">
+    <row r="15" spans="1:7" s="44" customFormat="1" ht="13.8">
       <c r="A15" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1946,7 +1952,7 @@
       <c r="D15" s="42"/>
       <c r="E15" s="43"/>
     </row>
-    <row r="16" spans="1:7" s="44" customFormat="1">
+    <row r="16" spans="1:7" s="44" customFormat="1" ht="13.8">
       <c r="A16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1956,7 +1962,7 @@
       <c r="D16" s="42"/>
       <c r="E16" s="43"/>
     </row>
-    <row r="17" spans="1:5" s="44" customFormat="1">
+    <row r="17" spans="1:5" s="44" customFormat="1" ht="13.8">
       <c r="A17" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6291,19 +6297,19 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="98" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="99" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="100" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="101"/>
+    <col min="1" max="1" width="5.44140625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="98" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="99" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" style="100" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="36.6">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -6315,7 +6321,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:9" s="62" customFormat="1" ht="25.8">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Samed Esen</v>
@@ -6327,7 +6333,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:9" s="112" customFormat="1" ht="15.75">
+    <row r="3" spans="1:9" s="112" customFormat="1" ht="15.6">
       <c r="B3" s="69"/>
       <c r="C3" s="70"/>
       <c r="D3" s="113"/>
@@ -6335,7 +6341,7 @@
       <c r="F3" s="115"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="15.6">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6350,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="15.6">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6359,7 +6365,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:9" s="74" customFormat="1" ht="15.6">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:9" s="74" customFormat="1" ht="15.6">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -6407,7 +6413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:9" s="74" customFormat="1" ht="15.6">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -6422,7 +6428,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:9" s="74" customFormat="1" ht="15.6">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="87"/>
@@ -6437,7 +6443,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" s="94" customFormat="1" ht="15.75">
+    <row r="10" spans="1:9" s="94" customFormat="1" ht="15.6">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
       <c r="C10" s="87"/>
@@ -6452,7 +6458,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.6">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="87"/>
@@ -6467,7 +6473,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.6">
       <c r="A12" s="81"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -6482,7 +6488,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="81"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -6497,73 +6503,73 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.6">
       <c r="A14" s="81"/>
       <c r="F14" s="85"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.6">
       <c r="A15" s="81"/>
       <c r="F15" s="85"/>
       <c r="G15" s="31"/>
       <c r="I15" s="100"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.6">
       <c r="A16" s="81"/>
       <c r="F16" s="85"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.6">
       <c r="A17" s="81"/>
       <c r="F17" s="85"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.6">
       <c r="A18" s="81"/>
       <c r="F18" s="85"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.6">
       <c r="A19" s="81"/>
       <c r="F19" s="85"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.6">
       <c r="A20" s="81"/>
       <c r="D20" s="99"/>
       <c r="F20" s="85"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.6">
       <c r="A21" s="81"/>
       <c r="F21" s="85"/>
       <c r="G21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.6">
       <c r="A22" s="81"/>
       <c r="F22" s="85"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.6">
       <c r="A23" s="81"/>
       <c r="F23" s="85"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.6">
       <c r="A24" s="81"/>
       <c r="F24" s="85"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.6">
       <c r="A25" s="81"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="81"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.6">
       <c r="A27" s="81"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.6">
       <c r="A28" s="81"/>
     </row>
   </sheetData>
@@ -6584,22 +6590,22 @@
   <dimension ref="A1:G916"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="1" max="1" width="5.44140625" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36.6">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -6611,7 +6617,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="25.8">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Sabine Lindner</v>
@@ -6623,7 +6629,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.6">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -6632,7 +6638,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.6">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6644,10 +6650,10 @@
       </c>
       <c r="G4" s="67">
         <f>SUM(G7:G996)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+        <v>6.5000000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6656,7 +6662,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6679,7 +6685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -6704,34 +6710,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85" t="e">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.6">
+      <c r="A8" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="82">
+        <v>44115</v>
+      </c>
+      <c r="C8" s="83">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="83">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="85" t="str">
         <f>VLOOKUP(E8,Aufgaben!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G8" s="31" t="str">
+        <v>Recherche Technologien</v>
+      </c>
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
-      <c r="A9" s="81"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85" t="e">
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.6">
+      <c r="A9" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="86">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="87">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="87">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="85" t="str">
         <f>VLOOKUP(E9,Aufgaben!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="31" t="str">
+        <v>Recherche Technologien</v>
+      </c>
+      <c r="G9" s="31">
         <f>IF(B9&lt;&gt;"",IF(D9&lt;C9,1-C9+D9,D9-C9)*24,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -19193,23 +19219,23 @@
   </sheetPr>
   <dimension ref="A1:G916"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="92" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="92" customWidth="1"/>
     <col min="6" max="6" width="24" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="7" max="7" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="36.6">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -19221,7 +19247,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="25.8">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Paul Pühringer</v>
@@ -19233,7 +19259,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.6">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -19242,7 +19268,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.6">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -19257,7 +19283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -19266,7 +19292,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -19289,7 +19315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -19314,7 +19340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A8" s="81" t="s">
         <v>53</v>
       </c>
@@ -19335,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A9" s="81"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
@@ -31813,19 +31839,19 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="88" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
     <col min="5" max="5" width="21" style="92" customWidth="1"/>
     <col min="6" max="6" width="38" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="7" max="7" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="36.6">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -31837,7 +31863,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="25.8">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Deutsch Thomas</v>
@@ -31849,7 +31875,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.6">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -31858,7 +31884,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.6">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -31873,7 +31899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -31882,7 +31908,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -31905,7 +31931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -31930,7 +31956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -31945,7 +31971,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="83"/>
@@ -31960,7 +31986,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="74" customFormat="1" ht="15.6">
       <c r="A10" s="81"/>
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
@@ -31975,7 +32001,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="81"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -31990,7 +32016,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="81"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
@@ -32005,7 +32031,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="81"/>
       <c r="B13" s="86"/>
       <c r="C13" s="87"/>
@@ -32020,7 +32046,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="81" t="str">
         <f t="shared" ref="A14:A32" si="2">IF(B14&lt;&gt;"",TEXT(B14,"TTT"),"")</f>
         <v/>
@@ -32035,7 +32061,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32050,7 +32076,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32065,7 +32091,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32080,7 +32106,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32095,7 +32121,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32110,7 +32136,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32125,7 +32151,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32140,7 +32166,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32155,7 +32181,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32170,7 +32196,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32185,7 +32211,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32200,7 +32226,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32215,7 +32241,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32230,7 +32256,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32245,7 +32271,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32260,7 +32286,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32275,7 +32301,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32290,7 +32316,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A188B70A-8618-4A1D-925C-69AF328F52EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA7D6E-F108-409D-8244-2F7134CF5B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>So</t>
+  </si>
+  <si>
+    <t>Thomas</t>
   </si>
 </sst>
 </file>
@@ -1428,18 +1431,18 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="23"/>
-    <col min="4" max="16384" width="11.44140625" style="24"/>
+    <col min="1" max="1" width="6.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="23"/>
+    <col min="4" max="16384" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36.6">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1448,7 +1451,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="25.8">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="D2" s="8"/>
@@ -1456,7 +1459,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.6">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1465,7 +1468,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
         <v>39</v>
@@ -1504,7 +1507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A8" s="16"/>
       <c r="B8" s="17" t="s">
         <v>40</v>
@@ -1513,7 +1516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
         <v>41</v>
@@ -1522,7 +1525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A10" s="16"/>
       <c r="B10" s="17" t="s">
         <v>48</v>
@@ -1531,7 +1534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A11" s="16"/>
       <c r="B11" s="17" t="s">
         <v>45</v>
@@ -1540,7 +1543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
         <v>42</v>
@@ -1549,25 +1552,34 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="15.6">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.6">
+      <c r="E13" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.6">
+      <c r="E14" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.6">
+      <c r="E15" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.75">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>47</v>
@@ -1576,7 +1588,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="17" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A17" s="16" t="s">
         <v>55</v>
       </c>
@@ -1584,27 +1596,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="18" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="19" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
     </row>
-    <row r="20" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="20" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
     </row>
-    <row r="21" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="21" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="22" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A22" s="16"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="23" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A23" s="13" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="24" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A24" s="16" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="25" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
@@ -1628,15 +1640,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="26" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="27" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A27" s="16"/>
       <c r="B27" s="18"/>
     </row>
-    <row r="28" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="28" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A28" s="13" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="29" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A29" s="16" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="30" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A30" s="16" t="s">
         <v>7</v>
       </c>
@@ -1660,91 +1672,91 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="31" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
     </row>
-    <row r="32" spans="1:2" s="15" customFormat="1" ht="15.6">
+    <row r="32" spans="1:2" s="15" customFormat="1" ht="15.75">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
     </row>
-    <row r="33" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="33" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="34" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
     </row>
-    <row r="35" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="35" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
     </row>
-    <row r="36" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
     </row>
-    <row r="37" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="37" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
     </row>
-    <row r="38" spans="1:3" s="19" customFormat="1" ht="15.6">
+    <row r="38" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="39" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
     </row>
-    <row r="40" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="40" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
     </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="41" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
     </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="42" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
     </row>
-    <row r="43" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="43" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="44" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
     </row>
-    <row r="45" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="45" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
     </row>
-    <row r="46" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="46" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
     </row>
-    <row r="47" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="47" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
     </row>
-    <row r="48" spans="1:3" s="15" customFormat="1" ht="15.6">
+    <row r="48" spans="1:3" s="15" customFormat="1" ht="15.75">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
     </row>
-    <row r="49" spans="1:3" s="19" customFormat="1" ht="15.6">
+    <row r="49" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A49" s="20"/>
       <c r="B49" s="17"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:3" s="19" customFormat="1" ht="15.6">
+    <row r="50" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A50" s="20"/>
       <c r="B50" s="17"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:3" s="19" customFormat="1" ht="15.6">
+    <row r="51" spans="1:3" s="19" customFormat="1" ht="15.75">
       <c r="A51" s="20"/>
       <c r="B51" s="17"/>
       <c r="C51" s="15"/>
@@ -1774,17 +1786,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.88671875" style="49"/>
+    <col min="1" max="1" width="5.42578125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36.6">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -1794,7 +1806,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="25.8">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1817,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.6">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1814,7 +1826,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="15.6">
+    <row r="4" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -1825,7 +1837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="28" customFormat="1" ht="15.6">
+    <row r="5" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A5" s="29" t="s">
         <v>34</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1" ht="15.6">
+    <row r="6" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A6" s="29" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="28" customFormat="1" ht="15.6">
+    <row r="7" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" ht="15.6">
+    <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
       <c r="A8" s="35" t="s">
         <v>35</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>6.5000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="16.2" thickBot="1">
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="38" t="str">
         <f t="shared" ref="A9:A47" si="0">IF(B9&lt;&gt;"",TEXT(B9,"TTT"),"")</f>
         <v/>
@@ -1892,7 +1904,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="44" customFormat="1" ht="14.4" thickTop="1">
+    <row r="10" spans="1:7" s="44" customFormat="1" ht="13.5" thickTop="1">
       <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1902,7 +1914,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
     </row>
-    <row r="11" spans="1:7" s="44" customFormat="1" ht="13.8">
+    <row r="11" spans="1:7" s="44" customFormat="1">
       <c r="A11" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1912,7 +1924,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
     </row>
-    <row r="12" spans="1:7" s="44" customFormat="1" ht="13.8">
+    <row r="12" spans="1:7" s="44" customFormat="1">
       <c r="A12" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1922,7 +1934,7 @@
       <c r="D12" s="42"/>
       <c r="E12" s="43"/>
     </row>
-    <row r="13" spans="1:7" s="44" customFormat="1" ht="13.8">
+    <row r="13" spans="1:7" s="44" customFormat="1">
       <c r="A13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1932,7 +1944,7 @@
       <c r="D13" s="42"/>
       <c r="E13" s="43"/>
     </row>
-    <row r="14" spans="1:7" s="44" customFormat="1" ht="13.8">
+    <row r="14" spans="1:7" s="44" customFormat="1">
       <c r="A14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1942,7 +1954,7 @@
       <c r="D14" s="42"/>
       <c r="E14" s="43"/>
     </row>
-    <row r="15" spans="1:7" s="44" customFormat="1" ht="13.8">
+    <row r="15" spans="1:7" s="44" customFormat="1">
       <c r="A15" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1952,7 +1964,7 @@
       <c r="D15" s="42"/>
       <c r="E15" s="43"/>
     </row>
-    <row r="16" spans="1:7" s="44" customFormat="1" ht="13.8">
+    <row r="16" spans="1:7" s="44" customFormat="1">
       <c r="A16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1962,7 +1974,7 @@
       <c r="D16" s="42"/>
       <c r="E16" s="43"/>
     </row>
-    <row r="17" spans="1:5" s="44" customFormat="1" ht="13.8">
+    <row r="17" spans="1:5" s="44" customFormat="1">
       <c r="A17" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6297,19 +6309,19 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="95" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="97" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="98" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" style="99" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" style="100" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="101"/>
+    <col min="1" max="1" width="5.42578125" style="95" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="96" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="97" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="100" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="36.6">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -6321,7 +6333,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="25.8">
+    <row r="2" spans="1:9" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Samed Esen</v>
@@ -6333,7 +6345,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:9" s="112" customFormat="1" ht="15.6">
+    <row r="3" spans="1:9" s="112" customFormat="1" ht="15.75">
       <c r="B3" s="69"/>
       <c r="C3" s="70"/>
       <c r="D3" s="113"/>
@@ -6341,7 +6353,7 @@
       <c r="F3" s="115"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="15.6">
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6356,7 +6368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="15.6">
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6365,7 +6377,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:9" s="74" customFormat="1" ht="15.6">
+    <row r="6" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6388,7 +6400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="74" customFormat="1" ht="15.6">
+    <row r="7" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -6413,7 +6425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="74" customFormat="1" ht="15.6">
+    <row r="8" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -6428,7 +6440,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" s="74" customFormat="1" ht="15.6">
+    <row r="9" spans="1:9" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="87"/>
@@ -6443,7 +6455,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" s="94" customFormat="1" ht="15.6">
+    <row r="10" spans="1:9" s="94" customFormat="1" ht="15.75">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
       <c r="C10" s="87"/>
@@ -6458,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="87"/>
@@ -6473,7 +6485,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.6">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="81"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -6488,7 +6500,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="81"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -6503,73 +6515,73 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="81"/>
       <c r="F14" s="85"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="81"/>
       <c r="F15" s="85"/>
       <c r="G15" s="31"/>
       <c r="I15" s="100"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="81"/>
       <c r="F16" s="85"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:10" ht="15.6">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="81"/>
       <c r="F17" s="85"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="81"/>
       <c r="F18" s="85"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="81"/>
       <c r="F19" s="85"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="81"/>
       <c r="D20" s="99"/>
       <c r="F20" s="85"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="81"/>
       <c r="F21" s="85"/>
       <c r="G21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="81"/>
       <c r="F22" s="85"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="81"/>
       <c r="F23" s="85"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:10" ht="15.6">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="81"/>
       <c r="F24" s="85"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="81"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="81"/>
     </row>
-    <row r="27" spans="1:10" ht="15.6">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="81"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="81"/>
     </row>
   </sheetData>
@@ -6593,19 +6605,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="94"/>
+    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="92" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36.6">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -6617,7 +6629,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="25.8">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Sabine Lindner</v>
@@ -6629,7 +6641,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.6">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -6638,7 +6650,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.6">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6653,7 +6665,7 @@
         <v>6.5000000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6662,7 +6674,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6685,7 +6697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -6710,7 +6722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81" t="s">
         <v>57</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81" t="s">
         <v>53</v>
       </c>
@@ -19223,19 +19235,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="92" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="92" customWidth="1"/>
     <col min="6" max="6" width="24" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="94"/>
+    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36.6">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -19247,7 +19259,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="25.8">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Paul Pühringer</v>
@@ -19259,7 +19271,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.6">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -19268,7 +19280,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.6">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -19283,7 +19295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -19292,7 +19304,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -19315,7 +19327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -19340,7 +19352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81" t="s">
         <v>53</v>
       </c>
@@ -19361,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
@@ -31839,19 +31851,19 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
     <col min="5" max="5" width="21" style="92" customWidth="1"/>
     <col min="6" max="6" width="38" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="94"/>
+    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36.6">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -31863,7 +31875,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="25.8">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Deutsch Thomas</v>
@@ -31875,7 +31887,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.6">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -31884,7 +31896,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.6">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -31899,7 +31911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -31908,7 +31920,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -31931,7 +31943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
@@ -31956,7 +31968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
@@ -31971,7 +31983,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
       <c r="C9" s="83"/>
@@ -31986,7 +31998,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" s="74" customFormat="1" ht="15.6">
+    <row r="10" spans="1:7" s="74" customFormat="1" ht="15.75">
       <c r="A10" s="81"/>
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
@@ -32001,7 +32013,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="81"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -32016,7 +32028,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="81"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
@@ -32031,7 +32043,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="81"/>
       <c r="B13" s="86"/>
       <c r="C13" s="87"/>
@@ -32046,7 +32058,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="81" t="str">
         <f t="shared" ref="A14:A32" si="2">IF(B14&lt;&gt;"",TEXT(B14,"TTT"),"")</f>
         <v/>
@@ -32061,7 +32073,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32076,7 +32088,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32091,7 +32103,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32106,7 +32118,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32121,7 +32133,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32136,7 +32148,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32151,7 +32163,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32166,7 +32178,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32181,7 +32193,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32196,7 +32208,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32211,7 +32223,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32226,7 +32238,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32241,7 +32253,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32256,7 +32268,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32271,7 +32283,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32286,7 +32298,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32301,7 +32313,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.6">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -32316,7 +32328,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA7D6E-F108-409D-8244-2F7134CF5B86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AF8D0E-3CFC-494D-8DF3-49CFBDE4D3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="1935" windowWidth="21600" windowHeight="12750" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Thomas</t>
+  </si>
+  <si>
+    <t>Di</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1879,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="34">
         <f ca="1">INDIRECT("'"&amp;A7&amp;"'!G4")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
@@ -1901,7 +1904,7 @@
       <c r="D9" s="39"/>
       <c r="E9" s="40">
         <f ca="1">SUM(E5:E8)</f>
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="44" customFormat="1" ht="13.5" thickTop="1">
@@ -19231,8 +19234,8 @@
   </sheetPr>
   <dimension ref="A1:G916"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -19292,7 +19295,7 @@
       </c>
       <c r="G4" s="67">
         <f>SUM(G7:G996)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
@@ -19359,8 +19362,12 @@
       <c r="B8" s="82">
         <v>44116</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="83">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D8" s="83">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="E8" s="84" t="s">
         <v>3</v>
       </c>
@@ -19370,22 +19377,32 @@
       </c>
       <c r="G8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
-      <c r="A9" s="81"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85" t="e">
+      <c r="A9" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="86">
+        <v>44117</v>
+      </c>
+      <c r="C9" s="87">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="87">
+        <v>0.4375</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="85" t="str">
         <f>VLOOKUP(E9,Aufgaben!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="31" t="str">
+        <v>Recherche Technologien</v>
+      </c>
+      <c r="G9" s="31">
         <f>IF(B9&lt;&gt;"",IF(D9&lt;C9,1-C9+D9,D9-C9)*24,"")</f>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EEBE31-82F3-420F-B1A3-728D568EE28B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A6ADC-F17D-4DCE-9F4A-48856FD9366B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Thomas</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Di</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -860,6 +866,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="98">
@@ -1422,7 +1431,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1733,7 +1742,7 @@
   </sheetPr>
   <dimension ref="A1:G632"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1827,7 +1836,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="34">
         <f ca="1">INDIRECT("'"&amp;A7&amp;"'!G4")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
@@ -1852,7 +1861,7 @@
       <c r="D9" s="39"/>
       <c r="E9" s="40">
         <f ca="1">SUM(E5:E8)</f>
-        <v>23.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="44" customFormat="1" ht="13.5" thickTop="1">
@@ -9907,8 +9916,8 @@
   </sheetPr>
   <dimension ref="A1:G916"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F355"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -23962,8 +23971,8 @@
   </sheetPr>
   <dimension ref="A1:G916"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
@@ -23973,7 +23982,7 @@
     <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="24" style="93" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.85546875" style="94"/>
   </cols>
@@ -24023,7 +24032,7 @@
       </c>
       <c r="G4" s="67">
         <f>SUM(G7:G996)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
@@ -24137,51 +24146,65 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="106" t="str">
+      <c r="A10" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="86">
+        <v>44120</v>
+      </c>
+      <c r="C10" s="87">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="87">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="85" t="str">
         <f>IF(ISBLANK(E10),"",VLOOKUP(E10,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G10" s="31" t="str">
+        <v>Entwicklungsumgebung vorbereiten</v>
+      </c>
+      <c r="G10" s="31">
+        <f>IF(B10&lt;&gt;"",IF(D10&lt;C10,1-C10+D10,D10-C10)*24,"")</f>
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="86">
+        <v>44117</v>
+      </c>
+      <c r="C11" s="87">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="87">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="85" t="str">
+        <f>IF(ISBLANK(E11),"",VLOOKUP(E11,Aufgaben!A:B,2,FALSE))</f>
+        <v>Teammeeting</v>
+      </c>
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106" t="str">
-        <f>IF(ISBLANK(E11),"",VLOOKUP(E11,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G11" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106" t="str">
+        <f>IF(B12&lt;&gt;"",TEXT(B12,"TTT"),"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85" t="str">
         <f>IF(ISBLANK(E12),"",VLOOKUP(E12,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24195,11 +24218,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106" t="str">
+      <c r="B13" s="86"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85" t="str">
         <f>IF(ISBLANK(E13),"",VLOOKUP(E13,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24213,11 +24236,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106" t="str">
+      <c r="B14" s="86"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85" t="str">
         <f>IF(ISBLANK(E14),"",VLOOKUP(E14,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24231,11 +24254,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106" t="str">
+      <c r="B15" s="86"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85" t="str">
         <f>IF(ISBLANK(E15),"",VLOOKUP(E15,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24249,11 +24272,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106" t="str">
+      <c r="B16" s="86"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85" t="str">
         <f>IF(ISBLANK(E16),"",VLOOKUP(E16,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24267,11 +24290,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="106" t="str">
+      <c r="B17" s="86"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85" t="str">
         <f>IF(ISBLANK(E17),"",VLOOKUP(E17,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24285,11 +24308,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106" t="str">
+      <c r="B18" s="86"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85" t="str">
         <f>IF(ISBLANK(E18),"",VLOOKUP(E18,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24303,11 +24326,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="106" t="str">
+      <c r="B19" s="86"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85" t="str">
         <f>IF(ISBLANK(E19),"",VLOOKUP(E19,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24321,11 +24344,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="106" t="str">
+      <c r="B20" s="86"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85" t="str">
         <f>IF(ISBLANK(E20),"",VLOOKUP(E20,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24339,11 +24362,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="106" t="str">
+      <c r="B21" s="86"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85" t="str">
         <f>IF(ISBLANK(E21),"",VLOOKUP(E21,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24357,11 +24380,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106" t="str">
+      <c r="B22" s="86"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85" t="str">
         <f>IF(ISBLANK(E22),"",VLOOKUP(E22,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24375,11 +24398,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="106" t="str">
+      <c r="B23" s="86"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85" t="str">
         <f>IF(ISBLANK(E23),"",VLOOKUP(E23,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24393,11 +24416,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="106" t="str">
+      <c r="B24" s="86"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85" t="str">
         <f>IF(ISBLANK(E24),"",VLOOKUP(E24,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24411,11 +24434,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="106" t="str">
+      <c r="B25" s="86"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85" t="str">
         <f>IF(ISBLANK(E25),"",VLOOKUP(E25,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24429,11 +24452,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106" t="str">
+      <c r="B26" s="86"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85" t="str">
         <f>IF(ISBLANK(E26),"",VLOOKUP(E26,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24447,11 +24470,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106" t="str">
+      <c r="B27" s="86"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85" t="str">
         <f>IF(ISBLANK(E27),"",VLOOKUP(E27,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24465,11 +24488,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="106" t="str">
+      <c r="B28" s="86"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85" t="str">
         <f>IF(ISBLANK(E28),"",VLOOKUP(E28,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24483,11 +24506,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="106" t="str">
+      <c r="B29" s="86"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85" t="str">
         <f>IF(ISBLANK(E29),"",VLOOKUP(E29,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24501,11 +24524,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="106" t="str">
+      <c r="B30" s="86"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85" t="str">
         <f>IF(ISBLANK(E30),"",VLOOKUP(E30,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24519,11 +24542,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="106" t="str">
+      <c r="B31" s="86"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85" t="str">
         <f>IF(ISBLANK(E31),"",VLOOKUP(E31,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24537,11 +24560,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="106" t="str">
+      <c r="B32" s="86"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85" t="str">
         <f>IF(ISBLANK(E32),"",VLOOKUP(E32,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24555,11 +24578,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="106" t="str">
+      <c r="B33" s="86"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85" t="str">
         <f>IF(ISBLANK(E33),"",VLOOKUP(E33,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24573,11 +24596,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="106" t="str">
+      <c r="B34" s="86"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85" t="str">
         <f>IF(ISBLANK(E34),"",VLOOKUP(E34,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
@@ -24591,11 +24614,11 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="106" t="str">
+      <c r="B35" s="86"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85" t="str">
         <f>IF(ISBLANK(E35),"",VLOOKUP(E35,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>

--- a/Zeitkonto_DKE.xlsx
+++ b/Zeitkonto_DKE.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A6ADC-F17D-4DCE-9F4A-48856FD9366B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD64909-7801-4B41-AB08-18F5457B75CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgaben" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -204,6 +202,12 @@
   </si>
   <si>
     <t>Di</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Do</t>
   </si>
 </sst>
 </file>
@@ -1431,18 +1435,18 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="23"/>
-    <col min="4" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="1" width="6.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="23"/>
+    <col min="4" max="16384" width="11.5" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1451,7 +1455,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="D2" s="8"/>
@@ -1459,7 +1463,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="16">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1468,7 +1472,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
@@ -1506,27 +1510,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="12" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A12" s="16"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="13" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1550,15 +1554,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="16">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A17" s="16"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="19" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A19" s="16" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A20" s="16" t="s">
         <v>7</v>
       </c>
@@ -1582,31 +1586,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="22" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="24" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
     </row>
-    <row r="25" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="25" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="26" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
     </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="s">
         <v>38</v>
@@ -1615,7 +1619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="19" customFormat="1" ht="15.75">
+    <row r="28" spans="1:5" s="19" customFormat="1" ht="16">
       <c r="A28" s="16"/>
       <c r="B28" s="17" t="s">
         <v>39</v>
@@ -1626,7 +1630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="29" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
         <v>40</v>
@@ -1635,7 +1639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="30" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A30" s="16"/>
       <c r="B30" s="17" t="s">
         <v>47</v>
@@ -1644,7 +1648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="31" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A31" s="16"/>
       <c r="B31" s="17" t="s">
         <v>44</v>
@@ -1653,7 +1657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="32" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A32" s="16"/>
       <c r="B32" s="17" t="s">
         <v>41</v>
@@ -1662,7 +1666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="33" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A33" s="16"/>
       <c r="B33" s="17" t="s">
         <v>43</v>
@@ -1671,7 +1675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="34" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A34" s="16"/>
       <c r="B34" s="17" t="s">
         <v>42</v>
@@ -1680,7 +1684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A35" s="16"/>
       <c r="B35" s="17" t="s">
         <v>45</v>
@@ -1689,7 +1693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="36" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
         <v>46</v>
@@ -1698,25 +1702,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="37" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
     </row>
-    <row r="38" spans="1:5" s="15" customFormat="1" ht="15.75">
+    <row r="38" spans="1:5" s="15" customFormat="1" ht="16">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
     </row>
-    <row r="39" spans="1:5" s="19" customFormat="1" ht="15.75">
+    <row r="39" spans="1:5" s="19" customFormat="1" ht="16">
       <c r="A39" s="20"/>
       <c r="B39" s="17"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="1:5" s="19" customFormat="1" ht="15.75">
+    <row r="40" spans="1:5" s="19" customFormat="1" ht="16">
       <c r="A40" s="20"/>
       <c r="B40" s="17"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="1:5" s="19" customFormat="1" ht="15.75">
+    <row r="41" spans="1:5" s="19" customFormat="1" ht="16">
       <c r="A41" s="20"/>
       <c r="B41" s="17"/>
       <c r="C41" s="15"/>
@@ -1743,20 +1747,20 @@
   <dimension ref="A1:G632"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="49"/>
+    <col min="1" max="1" width="5.5" style="50" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -1766,7 +1770,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="26">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1777,7 +1781,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="127" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="127" customFormat="1" ht="16">
       <c r="A3" s="122"/>
       <c r="B3" s="123"/>
       <c r="C3" s="124"/>
@@ -1786,7 +1790,7 @@
       <c r="F3" s="126"/>
       <c r="G3" s="126"/>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A5" s="29" t="s">
         <v>34</v>
       </c>
@@ -1806,13 +1810,13 @@
       <c r="D5" s="30"/>
       <c r="E5" s="31">
         <f ca="1">INDIRECT("'"&amp;A5&amp;"'!G4")</f>
-        <v>3</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A6" s="29" t="s">
         <v>29</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A7" s="32" t="s">
         <v>30</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="28" customFormat="1" ht="16">
       <c r="A8" s="35" t="s">
         <v>35</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>6.5000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="16.5" thickBot="1">
+    <row r="9" spans="1:7" s="28" customFormat="1" ht="17" thickBot="1">
       <c r="A9" s="38" t="str">
         <f t="shared" ref="A9:A47" si="0">IF(B9&lt;&gt;"",TEXT(B9,"TTT"),"")</f>
         <v/>
@@ -1861,10 +1865,10 @@
       <c r="D9" s="39"/>
       <c r="E9" s="40">
         <f ca="1">SUM(E5:E8)</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="44" customFormat="1" ht="13.5" thickTop="1">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="44" customFormat="1" ht="15" thickTop="1">
       <c r="A10" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6265,23 +6269,23 @@
   </sheetPr>
   <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="97" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="95" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="96" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="97" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="98" customWidth="1"/>
     <col min="5" max="5" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" style="100" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="101"/>
+    <col min="6" max="6" width="33.5" style="100" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -6293,7 +6297,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:9" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Samed Esen</v>
@@ -6305,7 +6309,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:9" s="112" customFormat="1" ht="15.75">
+    <row r="3" spans="1:9" s="112" customFormat="1" ht="16">
       <c r="B3" s="69"/>
       <c r="C3" s="70"/>
       <c r="D3" s="113"/>
@@ -6313,7 +6317,7 @@
       <c r="F3" s="115"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:9" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:9" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -6325,10 +6329,10 @@
       </c>
       <c r="G4" s="67">
         <f>SUM(G7:G89)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="74" customFormat="1" ht="15.75">
+        <v>12.000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -6337,7 +6341,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:9" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="str">
         <f>IF(B7&lt;&gt;"",TEXT(B7,"TTT"),"")</f>
         <v>Fr</v>
@@ -6386,81 +6390,109 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="74" customFormat="1" ht="15.75">
-      <c r="A8" s="81" t="str">
-        <f t="shared" ref="A8:A71" si="1">IF(B8&lt;&gt;"",TEXT(B8,"TTT"),"")</f>
-        <v/>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
+    <row r="8" spans="1:9" s="74" customFormat="1" ht="16">
+      <c r="A8" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="82">
+        <v>44115</v>
+      </c>
+      <c r="C8" s="83">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D8" s="83">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" s="85" t="str">
         <f>IF(ISBLANK(E8),"",VLOOKUP(E8,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G8" s="31" t="str">
+        <v>Recherche Technologien</v>
+      </c>
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="74" customFormat="1" ht="15.75">
-      <c r="A9" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="84"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="74" customFormat="1" ht="16">
+      <c r="A9" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="82">
+        <v>44117</v>
+      </c>
+      <c r="C9" s="87">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="87">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>2</v>
+      </c>
       <c r="F9" s="85" t="str">
         <f>IF(ISBLANK(E9),"",VLOOKUP(E9,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G9" s="31" t="str">
+        <v>Teammeeting</v>
+      </c>
+      <c r="G9" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="94" customFormat="1" ht="15.75">
-      <c r="A10" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="84"/>
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="94" customFormat="1" ht="16">
+      <c r="A10" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="82">
+        <v>44119</v>
+      </c>
+      <c r="C10" s="87">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D10" s="87">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="85" t="str">
         <f>IF(ISBLANK(E10),"",VLOOKUP(E10,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G10" s="31" t="str">
+        <v>Entwicklungsumgebung vorbereiten</v>
+      </c>
+      <c r="G10" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="84"/>
+        <v>2.5000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="82">
+        <v>44120</v>
+      </c>
+      <c r="C11" s="87">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="87">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>2</v>
+      </c>
       <c r="F11" s="85" t="str">
         <f>IF(ISBLANK(E11),"",VLOOKUP(E11,Aufgaben!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-      <c r="G11" s="31" t="str">
+        <v>Teammeeting</v>
+      </c>
+      <c r="G11" s="31">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A8:A71" si="1">IF(B12&lt;&gt;"",TEXT(B12,"TTT"),"")</f>
         <v/>
       </c>
       <c r="B12" s="84"/>
@@ -6476,7 +6508,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6494,7 +6526,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6508,7 +6540,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6523,7 +6555,7 @@
       </c>
       <c r="I15" s="100"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6537,7 +6569,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6551,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6565,7 +6597,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6579,7 +6611,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6594,7 +6626,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6609,7 +6641,7 @@
       </c>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6623,7 +6655,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6637,7 +6669,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6651,7 +6683,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6665,7 +6697,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6679,7 +6711,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6693,7 +6725,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6707,7 +6739,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6721,7 +6753,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6735,7 +6767,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6749,7 +6781,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6763,7 +6795,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6777,7 +6809,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6791,7 +6823,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6805,7 +6837,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6819,7 +6851,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6833,7 +6865,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6847,7 +6879,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6861,7 +6893,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6875,7 +6907,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6889,7 +6921,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6903,7 +6935,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6917,7 +6949,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6931,7 +6963,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6945,7 +6977,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6959,7 +6991,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6973,7 +7005,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6987,7 +7019,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7001,7 +7033,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7015,7 +7047,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
+    <row r="51" spans="1:7" ht="16">
       <c r="A51" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7029,7 +7061,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="16">
       <c r="A52" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7043,7 +7075,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7057,7 +7089,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="16">
       <c r="A54" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7071,7 +7103,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="16">
       <c r="A55" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7085,7 +7117,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="16">
       <c r="A56" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7099,7 +7131,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7" ht="16">
       <c r="A57" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7113,7 +7145,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7127,7 +7159,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="16">
       <c r="A59" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7141,7 +7173,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="16">
       <c r="A60" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7155,7 +7187,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75">
+    <row r="61" spans="1:7" ht="16">
       <c r="A61" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7169,7 +7201,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="16">
       <c r="A62" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7183,7 +7215,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
+    <row r="63" spans="1:7" ht="16">
       <c r="A63" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7197,7 +7229,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="16">
       <c r="A64" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7211,7 +7243,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="16">
       <c r="A65" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7225,7 +7257,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="16">
       <c r="A66" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7239,7 +7271,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="16">
       <c r="A67" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7253,7 +7285,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="16">
       <c r="A68" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7267,7 +7299,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="16">
       <c r="A69" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7281,7 +7313,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="16">
       <c r="A70" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7295,7 +7327,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75">
+    <row r="71" spans="1:7" ht="16">
       <c r="A71" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -7309,7 +7341,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="16">
       <c r="A72" s="81" t="str">
         <f t="shared" ref="A72:A135" si="3">IF(B72&lt;&gt;"",TEXT(B72,"TTT"),"")</f>
         <v/>
@@ -7323,7 +7355,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="16">
       <c r="A73" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7337,7 +7369,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="16">
       <c r="A74" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7351,7 +7383,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="16">
       <c r="A75" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7365,7 +7397,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="16">
       <c r="A76" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7379,7 +7411,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="16">
       <c r="A77" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7393,7 +7425,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="16">
       <c r="A78" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7407,7 +7439,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75">
+    <row r="79" spans="1:7" ht="16">
       <c r="A79" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7421,7 +7453,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="16">
       <c r="A80" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7435,7 +7467,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75">
+    <row r="81" spans="1:7" ht="16">
       <c r="A81" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7449,7 +7481,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75">
+    <row r="82" spans="1:7" ht="16">
       <c r="A82" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7463,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75">
+    <row r="83" spans="1:7" ht="16">
       <c r="A83" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7477,7 +7509,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75">
+    <row r="84" spans="1:7" ht="16">
       <c r="A84" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7491,7 +7523,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75">
+    <row r="85" spans="1:7" ht="16">
       <c r="A85" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7505,7 +7537,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75">
+    <row r="86" spans="1:7" ht="16">
       <c r="A86" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7519,7 +7551,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75">
+    <row r="87" spans="1:7" ht="16">
       <c r="A87" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7533,7 +7565,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75">
+    <row r="88" spans="1:7" ht="16">
       <c r="A88" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7547,7 +7579,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75">
+    <row r="89" spans="1:7" ht="16">
       <c r="A89" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7561,7 +7593,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:7" ht="16">
       <c r="A90" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7575,7 +7607,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75">
+    <row r="91" spans="1:7" ht="16">
       <c r="A91" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7589,7 +7621,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:7" ht="16">
       <c r="A92" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7603,7 +7635,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:7" ht="16">
       <c r="A93" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7617,7 +7649,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:7" ht="16">
       <c r="A94" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7631,7 +7663,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:7" ht="16">
       <c r="A95" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7645,7 +7677,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75">
+    <row r="96" spans="1:7" ht="16">
       <c r="A96" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7659,7 +7691,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75">
+    <row r="97" spans="1:7" ht="16">
       <c r="A97" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7673,7 +7705,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75">
+    <row r="98" spans="1:7" ht="16">
       <c r="A98" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7687,7 +7719,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75">
+    <row r="99" spans="1:7" ht="16">
       <c r="A99" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7701,7 +7733,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75">
+    <row r="100" spans="1:7" ht="16">
       <c r="A100" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7715,7 +7747,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75">
+    <row r="101" spans="1:7" ht="16">
       <c r="A101" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7729,7 +7761,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75">
+    <row r="102" spans="1:7" ht="16">
       <c r="A102" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7743,7 +7775,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75">
+    <row r="103" spans="1:7" ht="16">
       <c r="A103" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7757,7 +7789,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75">
+    <row r="104" spans="1:7" ht="16">
       <c r="A104" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7771,7 +7803,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75">
+    <row r="105" spans="1:7" ht="16">
       <c r="A105" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7785,7 +7817,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75">
+    <row r="106" spans="1:7" ht="16">
       <c r="A106" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7799,7 +7831,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75">
+    <row r="107" spans="1:7" ht="16">
       <c r="A107" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7813,7 +7845,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75">
+    <row r="108" spans="1:7" ht="16">
       <c r="A108" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7827,7 +7859,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75">
+    <row r="109" spans="1:7" ht="16">
       <c r="A109" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7841,7 +7873,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75">
+    <row r="110" spans="1:7" ht="16">
       <c r="A110" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7855,7 +7887,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75">
+    <row r="111" spans="1:7" ht="16">
       <c r="A111" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7869,7 +7901,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75">
+    <row r="112" spans="1:7" ht="16">
       <c r="A112" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7883,7 +7915,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75">
+    <row r="113" spans="1:7" ht="16">
       <c r="A113" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7897,7 +7929,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75">
+    <row r="114" spans="1:7" ht="16">
       <c r="A114" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7911,7 +7943,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75">
+    <row r="115" spans="1:7" ht="16">
       <c r="A115" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7925,7 +7957,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75">
+    <row r="116" spans="1:7" ht="16">
       <c r="A116" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7939,7 +7971,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75">
+    <row r="117" spans="1:7" ht="16">
       <c r="A117" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7953,7 +7985,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75">
+    <row r="118" spans="1:7" ht="16">
       <c r="A118" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7967,7 +7999,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75">
+    <row r="119" spans="1:7" ht="16">
       <c r="A119" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7981,7 +8013,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75">
+    <row r="120" spans="1:7" ht="16">
       <c r="A120" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7995,7 +8027,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75">
+    <row r="121" spans="1:7" ht="16">
       <c r="A121" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8009,7 +8041,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75">
+    <row r="122" spans="1:7" ht="16">
       <c r="A122" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8023,7 +8055,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75">
+    <row r="123" spans="1:7" ht="16">
       <c r="A123" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8037,7 +8069,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75">
+    <row r="124" spans="1:7" ht="16">
       <c r="A124" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8051,7 +8083,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75">
+    <row r="125" spans="1:7" ht="16">
       <c r="A125" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8065,7 +8097,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75">
+    <row r="126" spans="1:7" ht="16">
       <c r="A126" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8079,7 +8111,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75">
+    <row r="127" spans="1:7" ht="16">
       <c r="A127" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8093,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75">
+    <row r="128" spans="1:7" ht="16">
       <c r="A128" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8107,7 +8139,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75">
+    <row r="129" spans="1:7" ht="16">
       <c r="A129" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8121,7 +8153,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75">
+    <row r="130" spans="1:7" ht="16">
       <c r="A130" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8135,7 +8167,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75">
+    <row r="131" spans="1:7" ht="16">
       <c r="A131" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8149,7 +8181,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75">
+    <row r="132" spans="1:7" ht="16">
       <c r="A132" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8163,7 +8195,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75">
+    <row r="133" spans="1:7" ht="16">
       <c r="A133" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8177,7 +8209,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75">
+    <row r="134" spans="1:7" ht="16">
       <c r="A134" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8191,7 +8223,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75">
+    <row r="135" spans="1:7" ht="16">
       <c r="A135" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8205,7 +8237,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75">
+    <row r="136" spans="1:7" ht="16">
       <c r="A136" s="81" t="str">
         <f t="shared" ref="A136:A199" si="5">IF(B136&lt;&gt;"",TEXT(B136,"TTT"),"")</f>
         <v/>
@@ -8219,7 +8251,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75">
+    <row r="137" spans="1:7" ht="16">
       <c r="A137" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8233,7 +8265,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75">
+    <row r="138" spans="1:7" ht="16">
       <c r="A138" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8247,7 +8279,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75">
+    <row r="139" spans="1:7" ht="16">
       <c r="A139" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8261,7 +8293,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75">
+    <row r="140" spans="1:7" ht="16">
       <c r="A140" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8275,7 +8307,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75">
+    <row r="141" spans="1:7" ht="16">
       <c r="A141" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8289,7 +8321,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75">
+    <row r="142" spans="1:7" ht="16">
       <c r="A142" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8303,7 +8335,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75">
+    <row r="143" spans="1:7" ht="16">
       <c r="A143" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8317,7 +8349,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75">
+    <row r="144" spans="1:7" ht="16">
       <c r="A144" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8331,7 +8363,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75">
+    <row r="145" spans="1:7" ht="16">
       <c r="A145" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8345,7 +8377,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75">
+    <row r="146" spans="1:7" ht="16">
       <c r="A146" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8359,7 +8391,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75">
+    <row r="147" spans="1:7" ht="16">
       <c r="A147" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8373,7 +8405,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75">
+    <row r="148" spans="1:7" ht="16">
       <c r="A148" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8387,7 +8419,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75">
+    <row r="149" spans="1:7" ht="16">
       <c r="A149" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8401,7 +8433,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75">
+    <row r="150" spans="1:7" ht="16">
       <c r="A150" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8415,7 +8447,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75">
+    <row r="151" spans="1:7" ht="16">
       <c r="A151" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8429,7 +8461,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75">
+    <row r="152" spans="1:7" ht="16">
       <c r="A152" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8443,7 +8475,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75">
+    <row r="153" spans="1:7" ht="16">
       <c r="A153" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8457,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75">
+    <row r="154" spans="1:7" ht="16">
       <c r="A154" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8471,7 +8503,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75">
+    <row r="155" spans="1:7" ht="16">
       <c r="A155" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8485,7 +8517,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75">
+    <row r="156" spans="1:7" ht="16">
       <c r="A156" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8499,7 +8531,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75">
+    <row r="157" spans="1:7" ht="16">
       <c r="A157" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8513,7 +8545,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
+    <row r="158" spans="1:7" ht="16">
       <c r="A158" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8527,7 +8559,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75">
+    <row r="159" spans="1:7" ht="16">
       <c r="A159" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8541,7 +8573,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75">
+    <row r="160" spans="1:7" ht="16">
       <c r="A160" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8555,7 +8587,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75">
+    <row r="161" spans="1:7" ht="16">
       <c r="A161" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8569,7 +8601,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75">
+    <row r="162" spans="1:7" ht="16">
       <c r="A162" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8583,7 +8615,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75">
+    <row r="163" spans="1:7" ht="16">
       <c r="A163" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8597,7 +8629,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75">
+    <row r="164" spans="1:7" ht="16">
       <c r="A164" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8611,7 +8643,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75">
+    <row r="165" spans="1:7" ht="16">
       <c r="A165" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8625,7 +8657,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75">
+    <row r="166" spans="1:7" ht="16">
       <c r="A166" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8639,7 +8671,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75">
+    <row r="167" spans="1:7" ht="16">
       <c r="A167" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8653,7 +8685,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75">
+    <row r="168" spans="1:7" ht="16">
       <c r="A168" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8667,7 +8699,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75">
+    <row r="169" spans="1:7" ht="16">
       <c r="A169" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8681,7 +8713,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75">
+    <row r="170" spans="1:7" ht="16">
       <c r="A170" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8695,7 +8727,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75">
+    <row r="171" spans="1:7" ht="16">
       <c r="A171" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8709,7 +8741,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75">
+    <row r="172" spans="1:7" ht="16">
       <c r="A172" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8723,7 +8755,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75">
+    <row r="173" spans="1:7" ht="16">
       <c r="A173" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8737,7 +8769,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75">
+    <row r="174" spans="1:7" ht="16">
       <c r="A174" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8751,7 +8783,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75">
+    <row r="175" spans="1:7" ht="16">
       <c r="A175" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8765,7 +8797,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75">
+    <row r="176" spans="1:7" ht="16">
       <c r="A176" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8779,7 +8811,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75">
+    <row r="177" spans="1:7" ht="16">
       <c r="A177" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8793,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75">
+    <row r="178" spans="1:7" ht="16">
       <c r="A178" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8807,7 +8839,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75">
+    <row r="179" spans="1:7" ht="16">
       <c r="A179" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8821,7 +8853,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75">
+    <row r="180" spans="1:7" ht="16">
       <c r="A180" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8835,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75">
+    <row r="181" spans="1:7" ht="16">
       <c r="A181" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8849,7 +8881,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75">
+    <row r="182" spans="1:7" ht="16">
       <c r="A182" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8863,7 +8895,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75">
+    <row r="183" spans="1:7" ht="16">
       <c r="A183" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8877,7 +8909,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75">
+    <row r="184" spans="1:7" ht="16">
       <c r="A184" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8891,7 +8923,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75">
+    <row r="185" spans="1:7" ht="16">
       <c r="A185" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8905,7 +8937,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75">
+    <row r="186" spans="1:7" ht="16">
       <c r="A186" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8919,7 +8951,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75">
+    <row r="187" spans="1:7" ht="16">
       <c r="A187" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8933,7 +8965,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75">
+    <row r="188" spans="1:7" ht="16">
       <c r="A188" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8947,7 +8979,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75">
+    <row r="189" spans="1:7" ht="16">
       <c r="A189" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8961,7 +8993,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75">
+    <row r="190" spans="1:7" ht="16">
       <c r="A190" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8975,7 +9007,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75">
+    <row r="191" spans="1:7" ht="16">
       <c r="A191" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -8989,7 +9021,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75">
+    <row r="192" spans="1:7" ht="16">
       <c r="A192" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9003,7 +9035,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75">
+    <row r="193" spans="1:7" ht="16">
       <c r="A193" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9017,7 +9049,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75">
+    <row r="194" spans="1:7" ht="16">
       <c r="A194" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9031,7 +9063,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75">
+    <row r="195" spans="1:7" ht="16">
       <c r="A195" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9045,7 +9077,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75">
+    <row r="196" spans="1:7" ht="16">
       <c r="A196" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9059,7 +9091,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75">
+    <row r="197" spans="1:7" ht="16">
       <c r="A197" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9073,7 +9105,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75">
+    <row r="198" spans="1:7" ht="16">
       <c r="A198" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9087,7 +9119,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75">
+    <row r="199" spans="1:7" ht="16">
       <c r="A199" s="81" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9101,7 +9133,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75">
+    <row r="200" spans="1:7" ht="16">
       <c r="A200" s="81" t="str">
         <f t="shared" ref="A200:A249" si="7">IF(B200&lt;&gt;"",TEXT(B200,"TTT"),"")</f>
         <v/>
@@ -9115,7 +9147,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75">
+    <row r="201" spans="1:7" ht="16">
       <c r="A201" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9129,7 +9161,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75">
+    <row r="202" spans="1:7" ht="16">
       <c r="A202" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9143,7 +9175,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75">
+    <row r="203" spans="1:7" ht="16">
       <c r="A203" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9157,7 +9189,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75">
+    <row r="204" spans="1:7" ht="16">
       <c r="A204" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9171,7 +9203,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75">
+    <row r="205" spans="1:7" ht="16">
       <c r="A205" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9185,7 +9217,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75">
+    <row r="206" spans="1:7" ht="16">
       <c r="A206" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9199,7 +9231,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75">
+    <row r="207" spans="1:7" ht="16">
       <c r="A207" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9213,7 +9245,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75">
+    <row r="208" spans="1:7" ht="16">
       <c r="A208" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9227,7 +9259,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.75">
+    <row r="209" spans="1:7" ht="16">
       <c r="A209" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9241,7 +9273,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75">
+    <row r="210" spans="1:7" ht="16">
       <c r="A210" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9255,7 +9287,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75">
+    <row r="211" spans="1:7" ht="16">
       <c r="A211" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9269,7 +9301,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75">
+    <row r="212" spans="1:7" ht="16">
       <c r="A212" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9283,7 +9315,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75">
+    <row r="213" spans="1:7" ht="16">
       <c r="A213" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9297,7 +9329,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75">
+    <row r="214" spans="1:7" ht="16">
       <c r="A214" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9311,7 +9343,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75">
+    <row r="215" spans="1:7" ht="16">
       <c r="A215" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9325,7 +9357,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.75">
+    <row r="216" spans="1:7" ht="16">
       <c r="A216" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9339,7 +9371,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75">
+    <row r="217" spans="1:7" ht="16">
       <c r="A217" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9353,7 +9385,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75">
+    <row r="218" spans="1:7" ht="16">
       <c r="A218" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9367,7 +9399,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75">
+    <row r="219" spans="1:7" ht="16">
       <c r="A219" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9381,7 +9413,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75">
+    <row r="220" spans="1:7" ht="16">
       <c r="A220" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9395,7 +9427,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75">
+    <row r="221" spans="1:7" ht="16">
       <c r="A221" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9409,7 +9441,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75">
+    <row r="222" spans="1:7" ht="16">
       <c r="A222" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9423,7 +9455,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75">
+    <row r="223" spans="1:7" ht="16">
       <c r="A223" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9437,7 +9469,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75">
+    <row r="224" spans="1:7" ht="16">
       <c r="A224" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9451,7 +9483,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75">
+    <row r="225" spans="1:7" ht="16">
       <c r="A225" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9465,7 +9497,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75">
+    <row r="226" spans="1:7" ht="16">
       <c r="A226" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9479,7 +9511,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75">
+    <row r="227" spans="1:7" ht="16">
       <c r="A227" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9493,7 +9525,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75">
+    <row r="228" spans="1:7" ht="16">
       <c r="A228" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9507,7 +9539,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75">
+    <row r="229" spans="1:7" ht="16">
       <c r="A229" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9521,7 +9553,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75">
+    <row r="230" spans="1:7" ht="16">
       <c r="A230" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9535,7 +9567,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75">
+    <row r="231" spans="1:7" ht="16">
       <c r="A231" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9549,7 +9581,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75">
+    <row r="232" spans="1:7" ht="16">
       <c r="A232" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9563,7 +9595,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75">
+    <row r="233" spans="1:7" ht="16">
       <c r="A233" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9577,7 +9609,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75">
+    <row r="234" spans="1:7" ht="16">
       <c r="A234" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9591,7 +9623,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75">
+    <row r="235" spans="1:7" ht="16">
       <c r="A235" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9605,7 +9637,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75">
+    <row r="236" spans="1:7" ht="16">
       <c r="A236" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9619,7 +9651,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75">
+    <row r="237" spans="1:7" ht="16">
       <c r="A237" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9633,7 +9665,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75">
+    <row r="238" spans="1:7" ht="16">
       <c r="A238" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9647,7 +9679,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75">
+    <row r="239" spans="1:7" ht="16">
       <c r="A239" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9661,7 +9693,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75">
+    <row r="240" spans="1:7" ht="16">
       <c r="A240" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9671,7 +9703,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75">
+    <row r="241" spans="1:6" ht="16">
       <c r="A241" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9681,7 +9713,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75">
+    <row r="242" spans="1:6" ht="16">
       <c r="A242" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9691,7 +9723,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75">
+    <row r="243" spans="1:6" ht="16">
       <c r="A243" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9701,7 +9733,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75">
+    <row r="244" spans="1:6" ht="16">
       <c r="A244" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9711,7 +9743,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75">
+    <row r="245" spans="1:6" ht="16">
       <c r="A245" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9721,7 +9753,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75">
+    <row r="246" spans="1:6" ht="16">
       <c r="A246" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9731,7 +9763,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75">
+    <row r="247" spans="1:6" ht="16">
       <c r="A247" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9741,7 +9773,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75">
+    <row r="248" spans="1:6" ht="16">
       <c r="A248" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9751,7 +9783,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75">
+    <row r="249" spans="1:6" ht="16">
       <c r="A249" s="81" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -9761,139 +9793,139 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75">
+    <row r="250" spans="1:6" ht="16">
       <c r="F250" s="85" t="str">
         <f>IF(ISBLANK(E250),"",VLOOKUP(E250,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15.75">
+    <row r="251" spans="1:6" ht="16">
       <c r="F251" s="85" t="str">
         <f>IF(ISBLANK(E251),"",VLOOKUP(E251,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15.75">
+    <row r="252" spans="1:6" ht="16">
       <c r="F252" s="85" t="str">
         <f>IF(ISBLANK(E252),"",VLOOKUP(E252,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15.75">
+    <row r="253" spans="1:6" ht="16">
       <c r="F253" s="85" t="str">
         <f>IF(ISBLANK(E253),"",VLOOKUP(E253,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15.75">
+    <row r="254" spans="1:6" ht="16">
       <c r="F254" s="85" t="str">
         <f>IF(ISBLANK(E254),"",VLOOKUP(E254,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15.75">
+    <row r="255" spans="1:6" ht="16">
       <c r="F255" s="85" t="str">
         <f>IF(ISBLANK(E255),"",VLOOKUP(E255,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15.75">
+    <row r="256" spans="1:6" ht="16">
       <c r="F256" s="85" t="str">
         <f>IF(ISBLANK(E256),"",VLOOKUP(E256,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="6:6" ht="15.75">
+    <row r="257" spans="6:6" ht="16">
       <c r="F257" s="85" t="str">
         <f>IF(ISBLANK(E257),"",VLOOKUP(E257,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="6:6" ht="15.75">
+    <row r="258" spans="6:6" ht="16">
       <c r="F258" s="85" t="str">
         <f>IF(ISBLANK(E258),"",VLOOKUP(E258,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="6:6" ht="15.75">
+    <row r="259" spans="6:6" ht="16">
       <c r="F259" s="85" t="str">
         <f>IF(ISBLANK(E259),"",VLOOKUP(E259,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="6:6" ht="15.75">
+    <row r="260" spans="6:6" ht="16">
       <c r="F260" s="85" t="str">
         <f>IF(ISBLANK(E260),"",VLOOKUP(E260,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="6:6" ht="15.75">
+    <row r="261" spans="6:6" ht="16">
       <c r="F261" s="85" t="str">
         <f>IF(ISBLANK(E261),"",VLOOKUP(E261,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="6:6" ht="15.75">
+    <row r="262" spans="6:6" ht="16">
       <c r="F262" s="85" t="str">
         <f>IF(ISBLANK(E262),"",VLOOKUP(E262,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="6:6" ht="15.75">
+    <row r="263" spans="6:6" ht="16">
       <c r="F263" s="85" t="str">
         <f>IF(ISBLANK(E263),"",VLOOKUP(E263,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="6:6" ht="15.75">
+    <row r="264" spans="6:6" ht="16">
       <c r="F264" s="85" t="str">
         <f>IF(ISBLANK(E264),"",VLOOKUP(E264,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="6:6" ht="15.75">
+    <row r="265" spans="6:6" ht="16">
       <c r="F265" s="85" t="str">
         <f>IF(ISBLANK(E265),"",VLOOKUP(E265,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="6:6" ht="15.75">
+    <row r="266" spans="6:6" ht="16">
       <c r="F266" s="85" t="str">
         <f>IF(ISBLANK(E266),"",VLOOKUP(E266,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="6:6" ht="15.75">
+    <row r="267" spans="6:6" ht="16">
       <c r="F267" s="85" t="str">
         <f>IF(ISBLANK(E267),"",VLOOKUP(E267,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="6:6" ht="15.75">
+    <row r="268" spans="6:6" ht="16">
       <c r="F268" s="85" t="str">
         <f>IF(ISBLANK(E268),"",VLOOKUP(E268,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="6:6" ht="15.75">
+    <row r="269" spans="6:6" ht="16">
       <c r="F269" s="85" t="str">
         <f>IF(ISBLANK(E269),"",VLOOKUP(E269,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="6:6" ht="15.75">
+    <row r="270" spans="6:6" ht="16">
       <c r="F270" s="85" t="str">
         <f>IF(ISBLANK(E270),"",VLOOKUP(E270,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="6:6" ht="15.75">
+    <row r="271" spans="6:6" ht="16">
       <c r="F271" s="85" t="str">
         <f>IF(ISBLANK(E271),"",VLOOKUP(E271,Aufgaben!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="6:6" ht="15.75">
+    <row r="272" spans="6:6" ht="16">
       <c r="F272" s="85" t="str">
         <f>IF(ISBLANK(E272),"",VLOOKUP(E272,Aufgaben!A:B,2,FALSE))</f>
         <v/>
@@ -9920,19 +9952,19 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
     <col min="5" max="5" width="5" style="92" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -9944,7 +9976,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Sabine Lindner</v>
@@ -9956,7 +9988,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -9965,7 +9997,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -9980,7 +10012,7 @@
         <v>6.5000000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -9989,7 +10021,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -10012,7 +10044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="str">
         <f>IF(B7&lt;&gt;"",TEXT(B7,"TTT"),"")</f>
         <v>Fr</v>
@@ -10038,7 +10070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A8" s="81" t="str">
         <f t="shared" ref="A8:A71" si="1">IF(B8&lt;&gt;"",TEXT(B8,"TTT"),"")</f>
         <v>So</v>
@@ -10064,7 +10096,7 @@
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A9" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Mo</v>
@@ -10090,7 +10122,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10108,7 +10140,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10126,7 +10158,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10144,7 +10176,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10162,7 +10194,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10180,7 +10212,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10198,7 +10230,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10216,7 +10248,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10234,7 +10266,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10252,7 +10284,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10270,7 +10302,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10288,7 +10320,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10306,7 +10338,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10324,7 +10356,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10342,7 +10374,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10360,7 +10392,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10378,7 +10410,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10396,7 +10428,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10414,7 +10446,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10432,7 +10464,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10450,7 +10482,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10468,7 +10500,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10486,7 +10518,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10504,7 +10536,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10522,7 +10554,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10540,7 +10572,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10558,7 +10590,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10576,7 +10608,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10594,7 +10626,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10612,7 +10644,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10630,7 +10662,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10648,7 +10680,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10666,7 +10698,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10684,7 +10716,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10702,7 +10734,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10720,7 +10752,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10738,7 +10770,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10756,7 +10788,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10774,7 +10806,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10792,7 +10824,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10810,7 +10842,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10828,7 +10860,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
+    <row r="51" spans="1:7" ht="16">
       <c r="A51" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10846,7 +10878,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="16">
       <c r="A52" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10864,7 +10896,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10882,7 +10914,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="16">
       <c r="A54" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10900,7 +10932,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="16">
       <c r="A55" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10918,7 +10950,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="16">
       <c r="A56" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10936,7 +10968,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7" ht="16">
       <c r="A57" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10954,7 +10986,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10972,7 +11004,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="16">
       <c r="A59" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -10990,7 +11022,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="16">
       <c r="A60" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11008,7 +11040,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75">
+    <row r="61" spans="1:7" ht="16">
       <c r="A61" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11026,7 +11058,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="16">
       <c r="A62" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11044,7 +11076,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
+    <row r="63" spans="1:7" ht="16">
       <c r="A63" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11062,7 +11094,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="16">
       <c r="A64" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11080,7 +11112,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="16">
       <c r="A65" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11098,7 +11130,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="16">
       <c r="A66" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11116,7 +11148,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="16">
       <c r="A67" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11134,7 +11166,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="16">
       <c r="A68" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11152,7 +11184,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="16">
       <c r="A69" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11170,7 +11202,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="16">
       <c r="A70" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11188,7 +11220,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75">
+    <row r="71" spans="1:7" ht="16">
       <c r="A71" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11206,7 +11238,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="16">
       <c r="A72" s="81" t="str">
         <f t="shared" ref="A72:A74" si="3">IF(B72&lt;&gt;"",TEXT(B72,"TTT"),"")</f>
         <v/>
@@ -11224,7 +11256,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="16">
       <c r="A73" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -11239,7 +11271,7 @@
       </c>
       <c r="G73" s="107"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="16">
       <c r="A74" s="81" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -23971,23 +24003,23 @@
   </sheetPr>
   <dimension ref="A1:G916"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="92" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="93" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -23999,7 +24031,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Paul Pühringer</v>
@@ -24011,7 +24043,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -24020,7 +24052,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -24035,7 +24067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -24044,7 +24076,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -24067,7 +24099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="str">
         <f>IF(B7&lt;&gt;"",TEXT(B7,"TTT"),"")</f>
         <v>Fr</v>
@@ -24093,7 +24125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A8" s="81" t="str">
         <f t="shared" ref="A8:A53" si="1">IF(B8&lt;&gt;"",TEXT(B8,"TTT"),"")</f>
         <v>Mo</v>
@@ -24119,7 +24151,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A9" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Di</v>
@@ -24145,7 +24177,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="81" t="s">
         <v>56</v>
       </c>
@@ -24170,7 +24202,7 @@
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="81" t="s">
         <v>57</v>
       </c>
@@ -24195,7 +24227,7 @@
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="81" t="str">
         <f>IF(B12&lt;&gt;"",TEXT(B12,"TTT"),"")</f>
         <v/>
@@ -24213,7 +24245,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24231,7 +24263,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24249,7 +24281,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24267,7 +24299,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24285,7 +24317,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24303,7 +24335,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24321,7 +24353,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24339,7 +24371,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24357,7 +24389,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24375,7 +24407,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24393,7 +24425,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24411,7 +24443,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24429,7 +24461,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24447,7 +24479,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24465,7 +24497,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24483,7 +24515,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24501,7 +24533,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24519,7 +24551,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24537,7 +24569,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24555,7 +24587,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24573,7 +24605,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24591,7 +24623,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24609,7 +24641,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24627,7 +24659,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24645,7 +24677,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24663,7 +24695,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24681,7 +24713,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24699,7 +24731,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24717,7 +24749,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24735,7 +24767,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24753,7 +24785,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24771,7 +24803,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24789,7 +24821,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24807,7 +24839,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24825,7 +24857,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24843,7 +24875,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24861,7 +24893,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24879,7 +24911,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24897,7 +24929,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
+    <row r="51" spans="1:7" ht="16">
       <c r="A51" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24915,7 +24947,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="16">
       <c r="A52" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -24933,7 +24965,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -37384,22 +37416,22 @@
   <dimension ref="A1:G917"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="90" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="88" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="91" customWidth="1"/>
     <col min="5" max="5" width="21" style="92" customWidth="1"/>
     <col min="6" max="6" width="38" style="93" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="94"/>
+    <col min="7" max="7" width="7.83203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="56" customFormat="1" ht="36">
+    <row r="1" spans="1:7" s="56" customFormat="1" ht="37">
       <c r="A1" s="1" t="str">
         <f>Aufgaben!A1</f>
         <v>DKE-PR 258.322 (Tanzer)</v>
@@ -37411,7 +37443,7 @@
       <c r="F1" s="54"/>
       <c r="G1" s="55"/>
     </row>
-    <row r="2" spans="1:7" s="62" customFormat="1" ht="26.25">
+    <row r="2" spans="1:7" s="62" customFormat="1" ht="26">
       <c r="A2" s="6" t="str">
         <f ca="1">"Zeitkonto von " &amp; MID(CELL("dateiname",A1),FIND("]",CELL("dateiname",A1))+1,255)</f>
         <v>Zeitkonto von Deutsch Thomas</v>
@@ -37423,7 +37455,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="1:7" s="121" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="121" customFormat="1" ht="16">
       <c r="A3" s="116"/>
       <c r="B3" s="117"/>
       <c r="C3" s="118"/>
@@ -37432,7 +37464,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="1:7" s="63" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="63" customFormat="1" ht="16">
       <c r="B4" s="64" t="s">
         <v>19</v>
       </c>
@@ -37447,7 +37479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A5" s="68"/>
       <c r="B5" s="69"/>
       <c r="C5" s="70"/>
@@ -37456,7 +37488,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="73"/>
     </row>
-    <row r="6" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="6" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
@@ -37479,7 +37511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A7" s="81" t="str">
         <f>IF(B7&lt;&gt;"",TEXT(B7,"TTT"),"")</f>
         <v>Fr</v>
@@ -37505,7 +37537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="8" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A8" s="81" t="str">
         <f t="shared" ref="A8:A9" si="1">IF(B8&lt;&gt;"",TEXT(B8,"TTT"),"")</f>
         <v>Di</v>
@@ -37531,7 +37563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="9" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A9" s="81" t="str">
         <f t="shared" si="1"/>
         <v>Di</v>
@@ -37557,7 +37589,7 @@
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="74" customFormat="1" ht="15.75">
+    <row r="10" spans="1:7" s="74" customFormat="1" ht="16">
       <c r="A10" s="81"/>
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
@@ -37572,7 +37604,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="81"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
@@ -37587,7 +37619,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="81"/>
       <c r="B12" s="86"/>
       <c r="C12" s="87"/>
@@ -37602,7 +37634,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:7" ht="16">
       <c r="A13" s="81"/>
       <c r="B13" s="86"/>
       <c r="C13" s="87"/>
@@ -37617,7 +37649,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
+    <row r="14" spans="1:7" ht="16">
       <c r="A14" s="81" t="str">
         <f t="shared" ref="A14:A32" si="2">IF(B14&lt;&gt;"",TEXT(B14,"TTT"),"")</f>
         <v/>
@@ -37635,7 +37667,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:7" ht="16">
       <c r="A15" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37653,7 +37685,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75">
+    <row r="16" spans="1:7" ht="16">
       <c r="A16" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37671,7 +37703,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:7" ht="16">
       <c r="A17" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37689,7 +37721,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75">
+    <row r="18" spans="1:7" ht="16">
       <c r="A18" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37707,7 +37739,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="16">
       <c r="A19" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37725,7 +37757,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="16">
       <c r="A20" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37743,7 +37775,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="16">
       <c r="A21" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37761,7 +37793,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="16">
       <c r="A22" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37779,7 +37811,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="16">
       <c r="A23" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37797,7 +37829,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="16">
       <c r="A24" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37815,7 +37847,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="16">
       <c r="A25" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37833,7 +37865,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="16">
       <c r="A26" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37851,7 +37883,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="16">
       <c r="A27" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37869,7 +37901,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="16">
       <c r="A28" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37887,7 +37919,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="16">
       <c r="A29" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37905,7 +37937,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="16">
       <c r="A30" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37923,7 +37955,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="16">
       <c r="A31" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37941,7 +37973,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="16">
       <c r="A32" s="81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -37959,7 +37991,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33" s="102"/>
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
@@ -37974,7 +38006,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="16">
       <c r="A34" s="102"/>
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
@@ -37989,7 +38021,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="16">
       <c r="A35" s="102"/>
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
@@ -38004,7 +38036,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="16">
       <c r="A36" s="102"/>
       <c r="B36" s="103"/>
       <c r="C36" s="104"/>
@@ -38019,7 +38051,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="16">
       <c r="A37" s="102"/>
       <c r="B37" s="103"/>
       <c r="C37" s="104"/>
@@ -38034,7 +38066,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="16">
       <c r="A38" s="102"/>
       <c r="B38" s="103"/>
       <c r="C38" s="104"/>
@@ -38049,7 +38081,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="16">
       <c r="A39" s="102"/>
       <c r="B39" s="103"/>
       <c r="C39" s="104"/>
@@ -38064,7 +38096,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="16">
       <c r="A40" s="102"/>
       <c r="B40" s="103"/>
       <c r="C40" s="104"/>
@@ -38079,7 +38111,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="16">
       <c r="A41" s="102"/>
       <c r="B41" s="103"/>
       <c r="C41" s="104"/>
@@ -38094,7 +38126,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="16">
       <c r="A42" s="102"/>
       <c r="B42" s="103"/>
       <c r="C42" s="104"/>
@@ -38109,7 +38141,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="16">
       <c r="A43" s="102"/>
       <c r="B43" s="103"/>
       <c r="C43" s="104"/>
@@ -38124,7 +38156,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="16">
       <c r="A44" s="102"/>
       <c r="B44" s="103"/>
       <c r="C44" s="104"/>
@@ -38139,7 +38171,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="16">
       <c r="A45" s="102"/>
       <c r="B45" s="108"/>
       <c r="C45" s="109"/>
@@ -38154,7 +38186,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="102"/>
       <c r="B46" s="108"/>
       <c r="C46" s="109"/>
@@ -38169,7 +38201,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="102"/>
       <c r="B47" s="108"/>
       <c r="C47" s="109"/>
@@ -38184,7 +38216,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="16">
       <c r="A48" s="102"/>
       <c r="B48" s="108"/>
       <c r="C48" s="109"/>
@@ -38199,7 +38231,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="16">
       <c r="A49" s="102"/>
       <c r="B49" s="108"/>
       <c r="C49" s="109"/>
@@ -38214,7 +38246,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75">
+    <row r="50" spans="1:7" ht="16">
       <c r="A50" s="102"/>
       <c r="B50" s="108"/>
       <c r="C50" s="109"/>
@@ -38229,7 +38261,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75">
+    <row r="51" spans="1:7" ht="16">
       <c r="A51" s="102"/>
       <c r="B51" s="108"/>
       <c r="C51" s="109"/>
@@ -38244,7 +38276,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7" ht="16">
       <c r="A52" s="102"/>
       <c r="B52" s="108"/>
       <c r="C52" s="109"/>
@@ -38259,7 +38291,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7" ht="16">
       <c r="A53" s="102"/>
       <c r="B53" s="108"/>
       <c r="C53" s="109"/>
@@ -38274,7 +38306,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75">
+    <row r="54" spans="1:7" ht="16">
       <c r="A54" s="102"/>
       <c r="B54" s="108"/>
       <c r="C54" s="109"/>
@@ -38289,7 +38321,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
+    <row r="55" spans="1:7" ht="16">
       <c r="A55" s="102"/>
       <c r="B55" s="108"/>
       <c r="C55" s="109"/>
@@ -38304,7 +38336,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75">
+    <row r="56" spans="1:7" ht="16">
       <c r="A56" s="102"/>
       <c r="B56" s="108"/>
       <c r="C56" s="109"/>
@@ -38319,7 +38351,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75">
+    <row r="57" spans="1:7" ht="16">
       <c r="A57" s="102"/>
       <c r="B57" s="108"/>
       <c r="C57" s="109"/>
@@ -38334,7 +38366,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75">
+    <row r="58" spans="1:7" ht="16">
       <c r="A58" s="102"/>
       <c r="B58" s="108"/>
       <c r="C58" s="109"/>
@@ -38349,7 +38381,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75">
+    <row r="59" spans="1:7" ht="16">
       <c r="A59" s="102"/>
       <c r="B59" s="108"/>
       <c r="C59" s="109"/>
@@ -38364,7 +38396,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75">
+    <row r="60" spans="1:7" ht="16">
       <c r="A60" s="102"/>
       <c r="B60" s="108"/>
       <c r="C60" s="109"/>
@@ -38379,7 +38411,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75">
+    <row r="61" spans="1:7" ht="16">
       <c r="A61" s="102"/>
       <c r="B61" s="108"/>
       <c r="C61" s="109"/>
@@ -38394,7 +38426,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.75">
+    <row r="62" spans="1:7" ht="16">
       <c r="A62" s="102"/>
       <c r="B62" s="108"/>
       <c r="C62" s="109"/>
@@ -38409,7 +38441,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
+    <row r="63" spans="1:7" ht="16">
       <c r="A63" s="102"/>
       <c r="B63" s="108"/>
       <c r="C63" s="109"/>
@@ -38424,7 +38456,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75">
+    <row r="64" spans="1:7" ht="16">
       <c r="A64" s="102"/>
       <c r="B64" s="108"/>
       <c r="C64" s="109"/>
@@ -38439,7 +38471,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="16">
       <c r="A65" s="102"/>
       <c r="B65" s="108"/>
       <c r="C65" s="109"/>
@@ -38454,7 +38486,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="16">
       <c r="A66" s="102"/>
       <c r="B66" s="108"/>
       <c r="C66" s="109"/>
@@ -38469,7 +38501,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="16">
       <c r="A67" s="102"/>
       <c r="B67" s="108"/>
       <c r="C67" s="109"/>
@@ -38484,7 +38516,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="16">
       <c r="A68" s="102"/>
       <c r="B68" s="108"/>
       <c r="C68" s="109"/>
@@ -38499,7 +38531,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="16">
       <c r="A69" s="102"/>
       <c r="B69" s="108"/>
       <c r="C69" s="109"/>
@@ -38514,7 +38546,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="16">
       <c r="A70" s="102"/>
       <c r="B70" s="108"/>
       <c r="C70" s="109"/>
@@ -38529,7 +38561,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75">
+    <row r="71" spans="1:7" ht="16">
       <c r="A71" s="102"/>
       <c r="B71" s="108"/>
       <c r="C71" s="109"/>
@@ -38544,7 +38576,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="16">
       <c r="A72" s="102"/>
       <c r="B72" s="108"/>
       <c r="C72" s="109"/>
@@ -38559,7 +38591,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="16">
       <c r="A73" s="102"/>
       <c r="B73" s="108"/>
       <c r="C73" s="109"/>
@@ -38574,7 +38606,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="16">
       <c r="A74" s="102"/>
       <c r="B74" s="108"/>
       <c r="C74" s="109"/>
@@ -38589,7 +38621,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="16">
       <c r="A75" s="102"/>
       <c r="B75" s="108"/>
       <c r="C75" s="109"/>
@@ -38604,7 +38636,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.75">
+    <row r="76" spans="1:7" ht="16">
       <c r="A76" s="102"/>
       <c r="B76" s="108"/>
       <c r="C76" s="109"/>
@@ -38619,7 +38651,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="16">
       <c r="A77" s="102"/>
       <c r="B77" s="108"/>
       <c r="C77" s="109"/>
@@ -38634,7 +38666,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="16">
       <c r="A78" s="102"/>
       <c r="B78" s="108"/>
       <c r="C78" s="109"/>
@@ -38649,7 +38681,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75">
+    <row r="79" spans="1:7" ht="16">
       <c r="A79" s="102"/>
       <c r="B79" s="108"/>
       <c r="C79" s="109"/>
@@ -38664,7 +38696,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="16">
       <c r="A80" s="102"/>
       <c r="B80" s="108"/>
       <c r="C80" s="109"/>
@@ -38679,7 +38711,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75">
+    <row r="81" spans="1:7" ht="16">
       <c r="A81" s="102"/>
       <c r="B81" s="108"/>
       <c r="C81" s="109"/>
@@ -38694,7 +38726,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75">
+    <row r="82" spans="1:7" ht="16">
       <c r="A82" s="102"/>
       <c r="B82" s="108"/>
       <c r="C82" s="109"/>
@@ -38709,7 +38741,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75">
+    <row r="83" spans="1:7" ht="16">
       <c r="A83" s="102"/>
       <c r="B83" s="108"/>
       <c r="C83" s="109"/>
@@ -38724,7 +38756,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75">
+    <row r="84" spans="1:7" ht="16">
       <c r="A84" s="102"/>
       <c r="B84" s="108"/>
       <c r="C84" s="109"/>
@@ -38739,7 +38771,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75">
+    <row r="85" spans="1:7" ht="16">
       <c r="A85" s="102"/>
       <c r="B85" s="108"/>
       <c r="C85" s="109"/>
@@ -38754,7 +38786,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75">
+    <row r="86" spans="1:7" ht="16">
       <c r="A86" s="102"/>
       <c r="B86" s="108"/>
       <c r="C86" s="109"/>
@@ -38769,7 +38801,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75">
+    <row r="87" spans="1:7" ht="16">
       <c r="A87" s="102"/>
       <c r="B87" s="108"/>
       <c r="C87" s="109"/>
@@ -38784,7 +38816,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75">
+    <row r="88" spans="1:7" ht="16">
       <c r="A88" s="102"/>
       <c r="B88" s="108"/>
       <c r="C88" s="109"/>
@@ -38799,7 +38831,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75">
+    <row r="89" spans="1:7" ht="16">
       <c r="A89" s="102"/>
       <c r="B89" s="108"/>
       <c r="C89" s="109"/>
@@ -38814,7 +38846,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:7" ht="16">
       <c r="A90" s="102"/>
       <c r="B90" s="108"/>
       <c r="C90" s="109"/>
@@ -38829,7 +38861,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75">
+    <row r="91" spans="1:7" ht="16">
       <c r="A91" s="102"/>
       <c r="B91" s="108"/>
       <c r="C91" s="109"/>
@@ -38844,7 +38876,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:7" ht="16">
       <c r="A92" s="102"/>
       <c r="B92" s="108"/>
       <c r="C92" s="109"/>
@@ -38859,7 +38891,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:7" ht="16">
       <c r="A93" s="102"/>
       <c r="B93" s="108"/>
       <c r="C93" s="109"/>
@@ -38874,7 +38906,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:7" ht="16">
       <c r="A94" s="102"/>
       <c r="B94" s="108"/>
       <c r="C94" s="109"/>
@@ -38889,7 +38921,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:7" ht="16">
       <c r="A95" s="102"/>
       <c r="B95" s="108"/>
       <c r="C95" s="109"/>
@@ -38904,7 +38936,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75">
+    <row r="96" spans="1:7" ht="16">
       <c r="A96" s="102"/>
       <c r="B96" s="108"/>
       <c r="C96" s="109"/>
@@ -38919,7 +38951,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75">
+    <row r="97" spans="1:7" ht="16">
       <c r="A97" s="102"/>
       <c r="B97" s="108"/>
       <c r="C97" s="109"/>
@@ -38934,7 +38966,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75">
+    <row r="98" spans="1:7" ht="16">
       <c r="A98" s="102"/>
       <c r="B98" s="108"/>
       <c r="C98" s="109"/>
@@ -38949,7 +38981,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75">
+    <row r="99" spans="1:7" ht="16">
       <c r="A99" s="102"/>
       <c r="B99" s="108"/>
       <c r="C99" s="109"/>
@@ -38964,7 +38996,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75">
+    <row r="100" spans="1:7" ht="16">
       <c r="A100" s="102"/>
       <c r="B100" s="108"/>
       <c r="C100" s="109"/>
@@ -38979,7 +39011,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75">
+    <row r="101" spans="1:7" ht="16">
       <c r="A101" s="102"/>
       <c r="B101" s="108"/>
       <c r="C101" s="109"/>
@@ -38994,7 +39026,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75">
+    <row r="102" spans="1:7" ht="16">
       <c r="A102" s="102"/>
       <c r="B102" s="108"/>
       <c r="C102" s="109"/>
@@ -39009,7 +39041,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75">
+    <row r="103" spans="1:7" ht="16">
       <c r="A103" s="102"/>
       <c r="B103" s="108"/>
       <c r="C103" s="109"/>
@@ -39024,7 +39056,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75">
+    <row r="104" spans="1:7" ht="16">
       <c r="A104" s="102"/>
       <c r="B104" s="108"/>
       <c r="C104" s="109"/>
@@ -39039,7 +39071,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75">
+    <row r="105" spans="1:7" ht="16">
       <c r="A105" s="102"/>
       <c r="B105" s="108"/>
       <c r="C105" s="109"/>
@@ -39054,7 +39086,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75">
+    <row r="106" spans="1:7" ht="16">
       <c r="A106" s="102"/>
       <c r="B106" s="108"/>
       <c r="C106" s="109"/>
@@ -39069,7 +39101,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75">
+    <row r="107" spans="1:7" ht="16">
       <c r="A107" s="102"/>
       <c r="B107" s="108"/>
       <c r="C107" s="109"/>
@@ -39084,7 +39116,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75">
+    <row r="108" spans="1:7" ht="16">
       <c r="A108" s="102"/>
       <c r="B108" s="108"/>
       <c r="C108" s="109"/>
@@ -39099,7 +39131,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75">
+    <row r="109" spans="1:7" ht="16">
       <c r="A109" s="102"/>
       <c r="B109" s="108"/>
       <c r="C109" s="109"/>
@@ -39114,7 +39146,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75">
+    <row r="110" spans="1:7" ht="16">
       <c r="A110" s="102"/>
       <c r="B110" s="108"/>
       <c r="C110" s="109"/>
@@ -39129,7 +39161,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75">
+    <row r="111" spans="1:7" ht="16">
       <c r="A111" s="102"/>
       <c r="B111" s="108"/>
       <c r="C111" s="109"/>
@@ -39144,7 +39176,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75">
+    <row r="112" spans="1:7" ht="16">
       <c r="A112" s="102"/>
       <c r="B112" s="108"/>
       <c r="C112" s="109"/>
@@ -39159,7 +39191,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.75">
+    <row r="113" spans="1:7" ht="16">
       <c r="A113" s="102"/>
       <c r="B113" s="108"/>
       <c r="C113" s="109"/>
@@ -39174,7 +39206,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.75">
+    <row r="114" spans="1:7" ht="16">
       <c r="A114" s="102"/>
       <c r="B114" s="108"/>
       <c r="C114" s="109"/>
@@ -39189,7 +39221,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.75">
+    <row r="115" spans="1:7" ht="16">
       <c r="A115" s="102"/>
       <c r="B115" s="108"/>
       <c r="C115" s="109"/>
@@ -39204,7 +39236,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75">
+    <row r="116" spans="1:7" ht="16">
       <c r="A116" s="102"/>
       <c r="B116" s="108"/>
       <c r="C116" s="109"/>
@@ -39219,7 +39251,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75">
+    <row r="117" spans="1:7" ht="16">
       <c r="A117" s="102"/>
       <c r="B117" s="108"/>
       <c r="C117" s="109"/>
@@ -39234,7 +39266,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75">
+    <row r="118" spans="1:7" ht="16">
       <c r="A118" s="102"/>
       <c r="B118" s="108"/>
       <c r="C118" s="109"/>
@@ -39249,7 +39281,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75">
+    <row r="119" spans="1:7" ht="16">
       <c r="A119" s="102"/>
       <c r="B119" s="108" t="s">
         <v>13</v>
@@ -39266,7 +39298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.75">
+    <row r="120" spans="1:7" ht="16">
       <c r="A120" s="102"/>
       <c r="B120" s="108"/>
       <c r="C120" s="109"/>
@@ -39281,7 +39313,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75">
+    <row r="121" spans="1:7" ht="16">
       <c r="A121" s="102"/>
       <c r="B121" s="108"/>
       <c r="C121" s="109"/>
@@ -39296,7 +39328,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75">
+    <row r="122" spans="1:7" ht="16">
       <c r="A122" s="102"/>
       <c r="B122" s="108"/>
       <c r="C122" s="109"/>
@@ -39311,7 +39343,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.75">
+    <row r="123" spans="1:7" ht="16">
       <c r="A123" s="102"/>
       <c r="B123" s="108"/>
       <c r="C123" s="109"/>
@@ -39326,7 +39358,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.75">
+    <row r="124" spans="1:7" ht="16">
       <c r="A124" s="102"/>
       <c r="B124" s="108"/>
       <c r="C124" s="109"/>
@@ -39341,7 +39373,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75">
+    <row r="125" spans="1:7" ht="16">
       <c r="A125" s="102"/>
       <c r="B125" s="108"/>
       <c r="C125" s="109"/>
@@ -39356,7 +39388,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75">
+    <row r="126" spans="1:7" ht="16">
       <c r="A126" s="102"/>
       <c r="B126" s="108"/>
       <c r="C126" s="109"/>
@@ -39371,7 +39403,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.75">
+    <row r="127" spans="1:7" ht="16">
       <c r="A127" s="102"/>
       <c r="B127" s="108"/>
       <c r="C127" s="109"/>
@@ -39386,7 +39418,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.75">
+    <row r="128" spans="1:7" ht="16">
       <c r="A128" s="102"/>
       <c r="B128" s="108"/>
       <c r="C128" s="109"/>
@@ -39401,7 +39433,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.75">
+    <row r="129" spans="1:7" ht="16">
       <c r="A129" s="102"/>
       <c r="B129" s="108"/>
       <c r="C129" s="109"/>
@@ -39416,7 +39448,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.75">
+    <row r="130" spans="1:7" ht="16">
       <c r="A130" s="102"/>
       <c r="B130" s="108"/>
       <c r="C130" s="109"/>
@@ -39431,7 +39463,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75">
+    <row r="131" spans="1:7" ht="16">
       <c r="A131" s="102"/>
       <c r="B131" s="108"/>
       <c r="C131" s="109"/>
@@ -39446,7 +39478,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75">
+    <row r="132" spans="1:7" ht="16">
       <c r="A132" s="102"/>
       <c r="B132" s="108"/>
       <c r="C132" s="109"/>
@@ -39461,7 +39493,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75">
+    <row r="133" spans="1:7" ht="16">
       <c r="A133" s="102"/>
       <c r="B133" s="108"/>
       <c r="C133" s="109"/>
@@ -39476,7 +39508,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75">
+    <row r="134" spans="1:7" ht="16">
       <c r="A134" s="102"/>
       <c r="B134" s="108"/>
       <c r="C134" s="109"/>
@@ -39491,7 +39523,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75">
+    <row r="135" spans="1:7" ht="16">
       <c r="A135" s="102"/>
       <c r="B135" s="108"/>
       <c r="C135" s="109"/>
@@ -39506,7 +39538,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75">
+    <row r="136" spans="1:7" ht="16">
       <c r="A136" s="102"/>
       <c r="B136" s="108"/>
       <c r="C136" s="109"/>
@@ -39521,7 +39553,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75">
+    <row r="137" spans="1:7" ht="16">
       <c r="A137" s="102"/>
       <c r="B137" s="108"/>
       <c r="C137" s="109"/>
@@ -39536,7 +39568,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75">
+    <row r="138" spans="1:7" ht="16">
       <c r="A138" s="102"/>
       <c r="B138" s="108"/>
       <c r="C138" s="109"/>
@@ -39551,7 +39583,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75">
+    <row r="139" spans="1:7" ht="16">
       <c r="A139" s="102"/>
       <c r="B139" s="108"/>
       <c r="C139" s="109"/>
@@ -39566,7 +39598,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75">
+    <row r="140" spans="1:7" ht="16">
       <c r="A140" s="102"/>
       <c r="B140" s="108"/>
       <c r="C140" s="109"/>
@@ -39581,7 +39613,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75">
+    <row r="141" spans="1:7" ht="16">
       <c r="A141" s="102"/>
       <c r="B141" s="108"/>
       <c r="C141" s="109"/>
@@ -39596,7 +39628,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75">
+    <row r="142" spans="1:7" ht="16">
       <c r="A142" s="102"/>
       <c r="B142" s="108"/>
       <c r="C142" s="109"/>
@@ -39611,7 +39643,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75">
+    <row r="143" spans="1:7" ht="16">
       <c r="A143" s="102"/>
       <c r="B143" s="108"/>
       <c r="C143" s="109"/>
@@ -39626,7 +39658,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75">
+    <row r="144" spans="1:7" ht="16">
       <c r="A144" s="102"/>
       <c r="B144" s="108"/>
       <c r="C144" s="109"/>
@@ -39641,7 +39673,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.75">
+    <row r="145" spans="1:7" ht="16">
       <c r="A145" s="102"/>
       <c r="B145" s="108"/>
       <c r="C145" s="109"/>
@@ -39656,7 +39688,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.75">
+    <row r="146" spans="1:7" ht="16">
       <c r="A146" s="102"/>
       <c r="B146" s="108"/>
       <c r="C146" s="109"/>
@@ -39671,7 +39703,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.75">
+    <row r="147" spans="1:7" ht="16">
       <c r="A147" s="102"/>
       <c r="B147" s="108"/>
       <c r="C147" s="109"/>
@@ -39686,7 +39718,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.75">
+    <row r="148" spans="1:7" ht="16">
       <c r="A148" s="102"/>
       <c r="B148" s="108"/>
       <c r="C148" s="109"/>
@@ -39701,7 +39733,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.75">
+    <row r="149" spans="1:7" ht="16">
       <c r="A149" s="102"/>
       <c r="B149" s="108"/>
       <c r="C149" s="109"/>
@@ -39716,7 +39748,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.75">
+    <row r="150" spans="1:7" ht="16">
       <c r="A150" s="102"/>
       <c r="B150" s="108"/>
       <c r="C150" s="109"/>
@@ -39731,7 +39763,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.75">
+    <row r="151" spans="1:7" ht="16">
       <c r="A151" s="102"/>
       <c r="B151" s="108"/>
       <c r="C151" s="109"/>
@@ -39746,7 +39778,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.75">
+    <row r="152" spans="1:7" ht="16">
       <c r="A152" s="102"/>
       <c r="B152" s="108"/>
       <c r="C152" s="109"/>
@@ -39761,7 +39793,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.75">
+    <row r="153" spans="1:7" ht="16">
       <c r="A153" s="102"/>
       <c r="B153" s="108"/>
       <c r="C153" s="109"/>
@@ -39776,7 +39808,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.75">
+    <row r="154" spans="1:7" ht="16">
       <c r="A154" s="102"/>
       <c r="B154" s="108"/>
       <c r="C154" s="109"/>
@@ -39791,7 +39823,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.75">
+    <row r="155" spans="1:7" ht="16">
       <c r="A155" s="102"/>
       <c r="B155" s="108"/>
       <c r="C155" s="109"/>
@@ -39806,7 +39838,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.75">
+    <row r="156" spans="1:7" ht="16">
       <c r="A156" s="102"/>
       <c r="B156" s="108"/>
       <c r="C156" s="109"/>
@@ -39821,7 +39853,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.75">
+    <row r="157" spans="1:7" ht="16">
       <c r="A157" s="102"/>
       <c r="B157" s="108"/>
       <c r="C157" s="109"/>
@@ -39836,7 +39868,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
+    <row r="158" spans="1:7" ht="16">
       <c r="A158" s="102"/>
       <c r="B158" s="108"/>
       <c r="C158" s="109"/>
@@ -39851,7 +39883,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.75">
+    <row r="159" spans="1:7" ht="16">
       <c r="A159" s="102"/>
       <c r="B159" s="108"/>
       <c r="C159" s="109"/>
@@ -39866,7 +39898,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.75">
+    <row r="160" spans="1:7" ht="16">
       <c r="A160" s="102"/>
       <c r="B160" s="108"/>
       <c r="C160" s="109"/>
@@ -39881,7 +39913,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.75">
+    <row r="161" spans="1:7" ht="16">
       <c r="A161" s="102"/>
       <c r="B161" s="108"/>
       <c r="C161" s="109"/>
@@ -39896,7 +39928,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.75">
+    <row r="162" spans="1:7" ht="16">
       <c r="A162" s="102"/>
       <c r="B162" s="108"/>
       <c r="C162" s="109"/>
@@ -39911,7 +39943,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.75">
+    <row r="163" spans="1:7" ht="16">
       <c r="A163" s="102"/>
       <c r="B163" s="108"/>
       <c r="C163" s="109"/>
@@ -39926,7 +39958,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75">
+    <row r="164" spans="1:7" ht="16">
       <c r="A164" s="102"/>
       <c r="B164" s="108"/>
       <c r="C164" s="109"/>
@@ -39941,7 +39973,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.75">
+    <row r="165" spans="1:7" ht="16">
       <c r="A165" s="102"/>
       <c r="B165" s="108"/>
       <c r="C165" s="109"/>
@@ -39956,7 +39988,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.75">
+    <row r="166" spans="1:7" ht="16">
       <c r="A166" s="102"/>
       <c r="B166" s="108"/>
       <c r="C166" s="109"/>
@@ -39971,7 +40003,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75">
+    <row r="167" spans="1:7" ht="16">
       <c r="A167" s="102"/>
       <c r="B167" s="108"/>
       <c r="C167" s="109"/>
@@ -39986,7 +40018,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.75">
+    <row r="168" spans="1:7" ht="16">
       <c r="A168" s="102"/>
       <c r="B168" s="108"/>
       <c r="C168" s="109"/>
@@ -40001,7 +40033,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75">
+    <row r="169" spans="1:7" ht="16">
       <c r="A169" s="102"/>
       <c r="B169" s="108"/>
       <c r="C169" s="109"/>
@@ -40016,7 +40048,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.75">
+    <row r="170" spans="1:7" ht="16">
       <c r="A170" s="102"/>
       <c r="B170" s="108"/>
       <c r="C170" s="109"/>
@@ -40031,7 +40063,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75">
+    <row r="171" spans="1:7" ht="16">
       <c r="A171" s="102"/>
       <c r="B171" s="108"/>
       <c r="C171" s="109"/>
@@ -40046,7 +40078,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75">
+    <row r="172" spans="1:7" ht="16">
       <c r="A172" s="102"/>
       <c r="B172" s="108"/>
       <c r="C172" s="109"/>
@@ -40061,7 +40093,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.75">
+    <row r="173" spans="1:7" ht="16">
       <c r="A173" s="102"/>
       <c r="B173" s="108"/>
       <c r="C173" s="109"/>
@@ -40076,7 +40108,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.75">
+    <row r="174" spans="1:7" ht="16">
       <c r="A174" s="102"/>
       <c r="B174" s="108"/>
       <c r="C174" s="109"/>
@@ -40091,7 +40123,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.75">
+    <row r="175" spans="1:7" ht="16">
       <c r="A175" s="102"/>
       <c r="B175" s="108"/>
       <c r="C175" s="109"/>
@@ -40106,7 +40138,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75">
+    <row r="176" spans="1:7" ht="16">
       <c r="A176" s="102"/>
       <c r="B176" s="108"/>
       <c r="C176" s="109"/>
@@ -40121,7 +40153,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.75">
+    <row r="177" spans="1:7" ht="16">
       <c r="A177" s="102"/>
       <c r="B177" s="108"/>
       <c r="C177" s="109"/>
@@ -40136,7 +40168,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.75">
+    <row r="178" spans="1:7" ht="16">
       <c r="A178" s="102"/>
       <c r="B178" s="108"/>
       <c r="C178" s="109"/>
@@ -40151,7 +40183,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.75">
+    <row r="179" spans="1:7" ht="16">
       <c r="A179" s="102"/>
       <c r="B179" s="108"/>
       <c r="C179" s="109"/>
@@ -40166,7 +40198,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.75">
+    <row r="180" spans="1:7" ht="16">
       <c r="A180" s="102"/>
       <c r="B180" s="108"/>
       <c r="C180" s="109"/>
@@ -40181,7 +40213,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.75">
+    <row r="181" spans="1:7" ht="16">
       <c r="A181" s="102"/>
       <c r="B181" s="108"/>
       <c r="C181" s="109"/>
@@ -40196,7 +40228,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.75">
+    <row r="182" spans="1:7" ht="16">
       <c r="A182" s="102"/>
       <c r="B182" s="108"/>
       <c r="C182" s="109"/>
@@ -40211,7 +40243,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.75">
+    <row r="183" spans="1:7" ht="16">
       <c r="A183" s="102"/>
       <c r="B183" s="108"/>
       <c r="C183" s="109"/>
@@ -40226,7 +40258,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15.75">
+    <row r="184" spans="1:7" ht="16">
       <c r="A184" s="102"/>
       <c r="B184" s="108"/>
       <c r="C184" s="109"/>
@@ -40241,7 +40273,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15.75">
+    <row r="185" spans="1:7" ht="16">
       <c r="A185" s="102"/>
       <c r="B185" s="108"/>
       <c r="C185" s="109"/>
@@ -40256,7 +40288,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15.75">
+    <row r="186" spans="1:7" ht="16">
       <c r="A186" s="102"/>
       <c r="B186" s="108"/>
       <c r="C186" s="109"/>
@@ -40271,7 +40303,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15.75">
+    <row r="187" spans="1:7" ht="16">
       <c r="A187" s="102"/>
       <c r="B187" s="108"/>
       <c r="C187" s="109"/>
@@ -40286,7 +40318,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15.75">
+    <row r="188" spans="1:7" ht="16">
       <c r="A188" s="102"/>
       <c r="B188" s="108"/>
       <c r="C188" s="109"/>
@@ -40301,7 +40333,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15.75">
+    <row r="189" spans="1:7" ht="16">
       <c r="A189" s="102"/>
       <c r="B189" s="108"/>
       <c r="C189" s="109"/>
@@ -40316,7 +40348,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15.75">
+    <row r="190" spans="1:7" ht="16">
       <c r="A190" s="102"/>
       <c r="B190" s="108"/>
       <c r="C190" s="109"/>
@@ -40331,7 +40363,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15.75">
+    <row r="191" spans="1:7" ht="16">
       <c r="A191" s="102"/>
       <c r="B191" s="108"/>
       <c r="C191" s="109"/>
@@ -40346,7 +40378,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75">
+    <row r="192" spans="1:7" ht="16">
       <c r="A192" s="102"/>
       <c r="B192" s="108"/>
       <c r="C192" s="109"/>
@@ -40361,7 +40393,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75">
+    <row r="193" spans="1:7" ht="16">
       <c r="A193" s="102"/>
       <c r="B193" s="108"/>
       <c r="C193" s="109"/>
@@ -40376,7 +40408,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15.75">
+    <row r="194" spans="1:7" ht="16">
       <c r="A194" s="102"/>
       <c r="B194" s="108"/>
       <c r="C194" s="109"/>
@@ -40391,7 +40423,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75">
+    <row r="195" spans="1:7" ht="16">
       <c r="A195" s="102"/>
       <c r="B195" s="108"/>
       <c r="C195" s="109"/>
@@ -40406,7 +40438,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75">
+    <row r="196" spans="1:7" ht="16">
       <c r="A196" s="102"/>
       <c r="B196" s="108"/>
       <c r="C196" s="109"/>
@@ -40421,7 +40453,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75">
+    <row r="197" spans="1:7" ht="16">
       <c r="A197" s="102"/>
       <c r="B197" s="108"/>
       <c r="C197" s="109"/>
@@ -40436,7 +40468,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15.75">
+    <row r="198" spans="1:7" ht="16">
       <c r="A198" s="102"/>
       <c r="B198" s="108"/>
       <c r="C198" s="109"/>
@@ -40451,7 +40483,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75">
+    <row r="199" spans="1:7" ht="16">
       <c r="A199" s="102"/>
       <c r="B199" s="108"/>
       <c r="C199" s="109"/>
@@ -40466,7 +40498,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15.75">
+    <row r="200" spans="1:7" ht="16">
       <c r="A200" s="102"/>
       <c r="B200" s="108"/>
       <c r="C200" s="109"/>
@@ -40481,7 +40513,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75">
+    <row r="201" spans="1:7" ht="16">
       <c r="A201" s="102"/>
       <c r="B201" s="108"/>
       <c r="C201" s="109"/>
@@ -40496,7 +40528,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15.75">
+    <row r="202" spans="1:7" ht="16">
       <c r="A202" s="102"/>
       <c r="B202" s="108"/>
       <c r="C202" s="109"/>
@@ -40511,7 +40543,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15.75">
+    <row r="203" spans="1:7" ht="16">
       <c r="A203" s="102"/>
       <c r="B203" s="108"/>
       <c r="C203" s="109"/>
@@ -40526,7 +40558,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15.75">
+    <row r="204" spans="1:7" ht="16">
       <c r="A204" s="102"/>
       <c r="B204" s="108"/>
       <c r="C204" s="109"/>
@@ -40541,7 +40573,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15.75">
+    <row r="205" spans="1:7" ht="16">
       <c r="A205" s="102" t="str">
         <f t="shared" ref="A205:A268" si="6">IF(B205&lt;&gt;"",TEXT(B205,"TTT"),"")</f>
         <v/>
@@ -40559,7 +40591,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15.75">
+    <row r="206" spans="1:7" ht="16">
       <c r="A206" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40577,7 +40609,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15.75">
+    <row r="207" spans="1:7" ht="16">
       <c r="A207" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40595,7 +40627,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15.75">
+    <row r="208" spans="1:7" ht="16">
       <c r="A208" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40613,7 +40645,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15.75">
+    <row r="209" spans="1:7" ht="16">
       <c r="A209" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40631,7 +40663,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15.75">
+    <row r="210" spans="1:7" ht="16">
       <c r="A210" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40649,7 +40681,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15.75">
+    <row r="211" spans="1:7" ht="16">
       <c r="A211" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40667,7 +40699,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15.75">
+    <row r="212" spans="1:7" ht="16">
       <c r="A212" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40685,7 +40717,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15.75">
+    <row r="213" spans="1:7" ht="16">
       <c r="A213" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40703,7 +40735,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75">
+    <row r="214" spans="1:7" ht="16">
       <c r="A214" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40721,7 +40753,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75">
+    <row r="215" spans="1:7" ht="16">
       <c r="A215" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40739,7 +40771,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15.75">
+    <row r="216" spans="1:7" ht="16">
       <c r="A216" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40757,7 +40789,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15.75">
+    <row r="217" spans="1:7" ht="16">
       <c r="A217" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40775,7 +40807,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15.75">
+    <row r="218" spans="1:7" ht="16">
       <c r="A218" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40793,7 +40825,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15.75">
+    <row r="219" spans="1:7" ht="16">
       <c r="A219" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40811,7 +40843,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15.75">
+    <row r="220" spans="1:7" ht="16">
       <c r="A220" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40829,7 +40861,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15.75">
+    <row r="221" spans="1:7" ht="16">
       <c r="A221" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40847,7 +40879,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15.75">
+    <row r="222" spans="1:7" ht="16">
       <c r="A222" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40865,7 +40897,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15.75">
+    <row r="223" spans="1:7" ht="16">
       <c r="A223" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40883,7 +40915,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75">
+    <row r="224" spans="1:7" ht="16">
       <c r="A224" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40901,7 +40933,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15.75">
+    <row r="225" spans="1:7" ht="16">
       <c r="A225" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40919,7 +40951,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15.75">
+    <row r="226" spans="1:7" ht="16">
       <c r="A226" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40937,7 +40969,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75">
+    <row r="227" spans="1:7" ht="16">
       <c r="A227" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40955,7 +40987,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75">
+    <row r="228" spans="1:7" ht="16">
       <c r="A228" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40973,7 +41005,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15.75">
+    <row r="229" spans="1:7" ht="16">
       <c r="A229" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -40991,7 +41023,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15.75">
+    <row r="230" spans="1:7" ht="16">
       <c r="A230" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41009,7 +41041,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15.75">
+    <row r="231" spans="1:7" ht="16">
       <c r="A231" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41027,7 +41059,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15.75">
+    <row r="232" spans="1:7" ht="16">
       <c r="A232" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41045,7 +41077,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75">
+    <row r="233" spans="1:7" ht="16">
       <c r="A233" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41063,7 +41095,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15.75">
+    <row r="234" spans="1:7" ht="16">
       <c r="A234" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41081,7 +41113,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15.75">
+    <row r="235" spans="1:7" ht="16">
       <c r="A235" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41099,7 +41131,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15.75">
+    <row r="236" spans="1:7" ht="16">
       <c r="A236" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41117,7 +41149,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15.75">
+    <row r="237" spans="1:7" ht="16">
       <c r="A237" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41135,7 +41167,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15.75">
+    <row r="238" spans="1:7" ht="16">
       <c r="A238" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41153,7 +41185,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15.75">
+    <row r="239" spans="1:7" ht="16">
       <c r="A239" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41171,7 +41203,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15.75">
+    <row r="240" spans="1:7" ht="16">
       <c r="A240" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41189,7 +41221,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15.75">
+    <row r="241" spans="1:7" ht="16">
       <c r="A241" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41207,7 +41239,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15.75">
+    <row r="242" spans="1:7" ht="16">
       <c r="A242" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41225,7 +41257,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15.75">
+    <row r="243" spans="1:7" ht="16">
       <c r="A243" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41243,7 +41275,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15.75">
+    <row r="244" spans="1:7" ht="16">
       <c r="A244" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41261,7 +41293,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15.75">
+    <row r="245" spans="1:7" ht="16">
       <c r="A245" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41279,7 +41311,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15.75">
+    <row r="246" spans="1:7" ht="16">
       <c r="A246" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41297,7 +41329,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15.75">
+    <row r="247" spans="1:7" ht="16">
       <c r="A247" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41315,7 +41347,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15.75">
+    <row r="248" spans="1:7" ht="16">
       <c r="A248" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41333,7 +41365,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15.75">
+    <row r="249" spans="1:7" ht="16">
       <c r="A249" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41351,7 +41383,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15.75">
+    <row r="250" spans="1:7" ht="16">
       <c r="A250" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41369,7 +41401,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15.75">
+    <row r="251" spans="1:7" ht="16">
       <c r="A251" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41387,7 +41419,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15.75">
+    <row r="252" spans="1:7" ht="16">
       <c r="A252" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41405,7 +41437,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15.75">
+    <row r="253" spans="1:7" ht="16">
       <c r="A253" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41423,7 +41455,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15.75">
+    <row r="254" spans="1:7" ht="16">
       <c r="A254" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41441,7 +41473,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15.75">
+    <row r="255" spans="1:7" ht="16">
       <c r="A255" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41459,7 +41491,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15.75">
+    <row r="256" spans="1:7" ht="16">
       <c r="A256" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41477,7 +41509,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15.75">
+    <row r="257" spans="1:7" ht="16">
       <c r="A257" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41495,7 +41527,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15.75">
+    <row r="258" spans="1:7" ht="16">
       <c r="A258" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41513,7 +41545,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15.75">
+    <row r="259" spans="1:7" ht="16">
       <c r="A259" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41531,7 +41563,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75">
+    <row r="260" spans="1:7" ht="16">
       <c r="A260" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41549,7 +41581,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15.75">
+    <row r="261" spans="1:7" ht="16">
       <c r="A261" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41567,7 +41599,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15.75">
+    <row r="262" spans="1:7" ht="16">
       <c r="A262" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41585,7 +41617,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15.75">
+    <row r="263" spans="1:7" ht="16">
       <c r="A263" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41603,7 +41635,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15.75">
+    <row r="264" spans="1:7" ht="16">
       <c r="A264" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41621,7 +41653,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75">
+    <row r="265" spans="1:7" ht="16">
       <c r="A265" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41639,7 +41671,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15.75">
+    <row r="266" spans="1:7" ht="16">
       <c r="A266" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41657,7 +41689,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15.75">
+    <row r="267" spans="1:7" ht="16">
       <c r="A267" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41675,7 +41707,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15.75">
+    <row r="268" spans="1:7" ht="16">
       <c r="A268" s="102" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -41693,7 +41725,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75">
+    <row r="269" spans="1:7" ht="16">
       <c r="A269" s="102" t="str">
         <f t="shared" ref="A269:A332" si="8">IF(B269&lt;&gt;"",TEXT(B269,"TTT"),"")</f>
         <v/>
@@ -41711,7 +41743,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15.75">
+    <row r="270" spans="1:7" ht="16">
       <c r="A270" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41729,7 +41761,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15.75">
+    <row r="271" spans="1:7" ht="16">
       <c r="A271" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41747,7 +41779,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75">
+    <row r="272" spans="1:7" ht="16">
       <c r="A272" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41765,7 +41797,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15.75">
+    <row r="273" spans="1:7" ht="16">
       <c r="A273" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41783,7 +41815,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.75">
+    <row r="274" spans="1:7" ht="16">
       <c r="A274" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41801,7 +41833,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.75">
+    <row r="275" spans="1:7" ht="16">
       <c r="A275" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41819,7 +41851,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75">
+    <row r="276" spans="1:7" ht="16">
       <c r="A276" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41837,7 +41869,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75">
+    <row r="277" spans="1:7" ht="16">
       <c r="A277" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41855,7 +41887,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75">
+    <row r="278" spans="1:7" ht="16">
       <c r="A278" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41873,7 +41905,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.75">
+    <row r="279" spans="1:7" ht="16">
       <c r="A279" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41891,7 +41923,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15.75">
+    <row r="280" spans="1:7" ht="16">
       <c r="A280" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41909,7 +41941,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15.75">
+    <row r="281" spans="1:7" ht="16">
       <c r="A281" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41927,7 +41959,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.75">
+    <row r="282" spans="1:7" ht="16">
       <c r="A282" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41945,7 +41977,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.75">
+    <row r="283" spans="1:7" ht="16">
       <c r="A283" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41963,7 +41995,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75">
+    <row r="284" spans="1:7" ht="16">
       <c r="A284" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41981,7 +42013,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15.75">
+    <row r="285" spans="1:7" ht="16">
       <c r="A285" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -41999,7 +42031,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15.75">
+    <row r="286" spans="1:7" ht="16">
       <c r="A286" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42017,7 +42049,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75">
+    <row r="287" spans="1:7" ht="16">
       <c r="A287" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42035,7 +42067,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.75">
+    <row r="288" spans="1:7" ht="16">
       <c r="A288" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42053,7 +42085,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75">
+    <row r="289" spans="1:7" ht="16">
       <c r="A289" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42071,7 +42103,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75">
+    <row r="290" spans="1:7" ht="16">
       <c r="A290" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42089,7 +42121,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75">
+    <row r="291" spans="1:7" ht="16">
       <c r="A291" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42107,7 +42139,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75">
+    <row r="292" spans="1:7" ht="16">
       <c r="A292" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42125,7 +42157,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75">
+    <row r="293" spans="1:7" ht="16">
       <c r="A293" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42143,7 +42175,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75">
+    <row r="294" spans="1:7" ht="16">
       <c r="A294" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42161,7 +42193,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75">
+    <row r="295" spans="1:7" ht="16">
       <c r="A295" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42179,7 +42211,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15.75">
+    <row r="296" spans="1:7" ht="16">
       <c r="A296" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42197,7 +42229,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75">
+    <row r="297" spans="1:7" ht="16">
       <c r="A297" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42215,7 +42247,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75">
+    <row r="298" spans="1:7" ht="16">
       <c r="A298" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42233,7 +42265,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.75">
+    <row r="299" spans="1:7" ht="16">
       <c r="A299" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42251,7 +42283,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.75">
+    <row r="300" spans="1:7" ht="16">
       <c r="A300" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42269,7 +42301,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75">
+    <row r="301" spans="1:7" ht="16">
       <c r="A301" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42287,7 +42319,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75">
+    <row r="302" spans="1:7" ht="16">
       <c r="A302" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42305,7 +42337,7 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75">
+    <row r="303" spans="1:7" ht="16">
       <c r="A303" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42323,7 +42355,7 @@
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.75">
+    <row r="304" spans="1:7" ht="16">
       <c r="A304" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42341,7 +42373,7 @@
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75">
+    <row r="305" spans="1:7" ht="16">
       <c r="A305" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42359,7 +42391,7 @@
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75">
+    <row r="306" spans="1:7" ht="16">
       <c r="A306" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42377,7 +42409,7 @@
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75">
+    <row r="307" spans="1:7" ht="16">
       <c r="A307" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42395,7 +42427,7 @@
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75">
+    <row r="308" spans="1:7" ht="16">
       <c r="A308" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42413,7 +42445,7 @@
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75">
+    <row r="309" spans="1:7" ht="16">
       <c r="A309" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42431,7 +42463,7 @@
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75">
+    <row r="310" spans="1:7" ht="16">
       <c r="A310" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42449,7 +42481,7 @@
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15.75">
+    <row r="311" spans="1:7" ht="16">
       <c r="A311" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42467,7 +42499,7 @@
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15.75">
+    <row r="312" spans="1:7" ht="16">
       <c r="A312" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42485,7 +42517,7 @@
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.75">
+    <row r="313" spans="1:7" ht="16">
       <c r="A313" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42503,7 +42535,7 @@
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75">
+    <row r="314" spans="1:7" ht="16">
       <c r="A314" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42521,7 +42553,7 @@
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15.75">
+    <row r="315" spans="1:7" ht="16">
       <c r="A315" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42539,7 +42571,7 @@
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75">
+    <row r="316" spans="1:7" ht="16">
       <c r="A316" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42557,7 +42589,7 @@
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15.75">
+    <row r="317" spans="1:7" ht="16">
       <c r="A317" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42575,7 +42607,7 @@
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15.75">
+    <row r="318" spans="1:7" ht="16">
       <c r="A318" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42593,7 +42625,7 @@
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15.75">
+    <row r="319" spans="1:7" ht="16">
       <c r="A319" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42611,7 +42643,7 @@
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="15.75">
+    <row r="320" spans="1:7" ht="16">
       <c r="A320" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42629,7 +42661,7 @@
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15.75">
+    <row r="321" spans="1:7" ht="16">
       <c r="A321" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42647,7 +42679,7 @@
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15.75">
+    <row r="322" spans="1:7" ht="16">
       <c r="A322" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42665,7 +42697,7 @@
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15.75">
+    <row r="323" spans="1:7" ht="16">
       <c r="A323" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42683,7 +42715,7 @@
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75">
+    <row r="324" spans="1:7" ht="16">
       <c r="A324" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42701,7 +42733,7 @@
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15.75">
+    <row r="325" spans="1:7" ht="16">
       <c r="A325" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42719,7 +42751,7 @@
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15.75">
+    <row r="326" spans="1:7" ht="16">
       <c r="A326" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42737,7 +42769,7 @@
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15.75">
+    <row r="327" spans="1:7" ht="16">
       <c r="A327" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42755,7 +42787,7 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.75">
+    <row r="328" spans="1:7" ht="16">
       <c r="A328" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42773,7 +42805,7 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75">
+    <row r="329" spans="1:7" ht="16">
       <c r="A329" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42791,7 +42823,7 @@
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15.75">
+    <row r="330" spans="1:7" ht="16">
       <c r="A330" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42809,7 +42841,7 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15.75">
+    <row r="331" spans="1:7" ht="16">
       <c r="A331" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42827,7 +42859,7 @@
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15.75">
+    <row r="332" spans="1:7" ht="16">
       <c r="A332" s="102" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -42845,7 +42877,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15.75">
+    <row r="333" spans="1:7" ht="16">
       <c r="A333" s="102" t="str">
         <f t="shared" ref="A333:A396" si="10">IF(B333&lt;&gt;"",TEXT(B333,"TTT"),"")</f>
         <v/>
@@ -42863,7 +42895,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15.75">
+    <row r="334" spans="1:7" ht="16">
       <c r="A334" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -42881,7 +42913,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15.75">
+    <row r="335" spans="1:7" ht="16">
       <c r="A335" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -42899,7 +42931,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15.75">
+    <row r="336" spans="1:7" ht="16">
       <c r="A336" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -42917,7 +42949,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.75">
+    <row r="337" spans="1:7" ht="16">
       <c r="A337" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -42935,7 +42967,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15.75">
+    <row r="338" spans="1:7" ht="16">
       <c r="A338" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -42953,7 +42985,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15.75">
+    <row r="339" spans="1:7" ht="16">
       <c r="A339" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -42971,7 +43003,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15.75">
+    <row r="340" spans="1:7" ht="16">
       <c r="A340" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -42989,7 +43021,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15.75">
+    <row r="341" spans="1:7" ht="16">
       <c r="A341" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43007,7 +43039,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15.75">
+    <row r="342" spans="1:7" ht="16">
       <c r="A342" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43025,7 +43057,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15.75">
+    <row r="343" spans="1:7" ht="16">
       <c r="A343" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43043,7 +43075,7 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.75">
+    <row r="344" spans="1:7" ht="16">
       <c r="A344" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43061,7 +43093,7 @@
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="15.75">
+    <row r="345" spans="1:7" ht="16">
       <c r="A345" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43079,7 +43111,7 @@
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15.75">
+    <row r="346" spans="1:7" ht="16">
       <c r="A346" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43097,7 +43129,7 @@
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="15.75">
+    <row r="347" spans="1:7" ht="16">
       <c r="A347" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43115,7 +43147,7 @@
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15.75">
+    <row r="348" spans="1:7" ht="16">
       <c r="A348" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43133,7 +43165,7 @@
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15.75">
+    <row r="349" spans="1:7" ht="16">
       <c r="A349" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43151,7 +43183,7 @@
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="15.75">
+    <row r="350" spans="1:7" ht="16">
       <c r="A350" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43169,7 +43201,7 @@
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="15.75">
+    <row r="351" spans="1:7" ht="16">
       <c r="A351" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43187,7 +43219,7 @@
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="15.75">
+    <row r="352" spans="1:7" ht="16">
       <c r="A352" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43205,7 +43237,7 @@
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="15.75">
+    <row r="353" spans="1:7" ht="16">
       <c r="A353" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43223,7 +43255,7 @@
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="15.75">
+    <row r="354" spans="1:7" ht="16">
       <c r="A354" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43241,7 +43273,7 @@
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="15.75">
+    <row r="355" spans="1:7" ht="16">
       <c r="A355" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43259,7 +43291,7 @@
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75">
+    <row r="356" spans="1:7" ht="16">
       <c r="A356" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43277,7 +43309,7 @@
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="15.75">
+    <row r="357" spans="1:7" ht="16">
       <c r="A357" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43295,7 +43327,7 @@
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="15.75">
+    <row r="358" spans="1:7" ht="16">
       <c r="A358" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43313,7 +43345,7 @@
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="15.75">
+    <row r="359" spans="1:7" ht="16">
       <c r="A359" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43331,7 +43363,7 @@
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="15.75">
+    <row r="360" spans="1:7" ht="16">
       <c r="A360" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43349,7 +43381,7 @@
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75">
+    <row r="361" spans="1:7" ht="16">
       <c r="A361" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43367,7 +43399,7 @@
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="15.75">
+    <row r="362" spans="1:7" ht="16">
       <c r="A362" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43385,7 +43417,7 @@
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="15.75">
+    <row r="363" spans="1:7" ht="16">
       <c r="A363" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43403,7 +43435,7 @@
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="15.75">
+    <row r="364" spans="1:7" ht="16">
       <c r="A364" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43421,7 +43453,7 @@
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15.75">
+    <row r="365" spans="1:7" ht="16">
       <c r="A365" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43439,7 +43471,7 @@
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="15.75">
+    <row r="366" spans="1:7" ht="16">
       <c r="A366" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43457,7 +43489,7 @@
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="15.75">
+    <row r="367" spans="1:7" ht="16">
       <c r="A367" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43475,7 +43507,7 @@
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15.75">
+    <row r="368" spans="1:7" ht="16">
       <c r="A368" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43493,7 +43525,7 @@
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="15.75">
+    <row r="369" spans="1:7" ht="16">
       <c r="A369" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43511,7 +43543,7 @@
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="15.75">
+    <row r="370" spans="1:7" ht="16">
       <c r="A370" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43529,7 +43561,7 @@
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="15.75">
+    <row r="371" spans="1:7" ht="16">
       <c r="A371" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43547,7 +43579,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15.75">
+    <row r="372" spans="1:7" ht="16">
       <c r="A372" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43565,7 +43597,7 @@
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="15.75">
+    <row r="373" spans="1:7" ht="16">
       <c r="A373" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43583,7 +43615,7 @@
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15.75">
+    <row r="374" spans="1:7" ht="16">
       <c r="A374" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43601,7 +43633,7 @@
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="15.75">
+    <row r="375" spans="1:7" ht="16">
       <c r="A375" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43619,7 +43651,7 @@
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15.75">
+    <row r="376" spans="1:7" ht="16">
       <c r="A376" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43637,7 +43669,7 @@
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="15.75">
+    <row r="377" spans="1:7" ht="16">
       <c r="A377" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43655,7 +43687,7 @@
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15.75">
+    <row r="378" spans="1:7" ht="16">
       <c r="A378" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43673,7 +43705,7 @@
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15.75">
+    <row r="379" spans="1:7" ht="16">
       <c r="A379" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43691,7 +43723,7 @@
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15.75">
+    <row r="380" spans="1:7" ht="16">
       <c r="A380" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43709,7 +43741,7 @@
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15.75">
+    <row r="381" spans="1:7" ht="16">
       <c r="A381" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43727,7 +43759,7 @@
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="15.75">
+    <row r="382" spans="1:7" ht="16">
       <c r="A382" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43745,7 +43777,7 @@
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15.75">
+    <row r="383" spans="1:7" ht="16">
       <c r="A383" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43763,7 +43795,7 @@
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="15.75">
+    <row r="384" spans="1:7" ht="16">
       <c r="A384" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43781,7 +43813,7 @@
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="15.75">
+    <row r="385" spans="1:7" ht="16">
       <c r="A385" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43799,7 +43831,7 @@
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="15.75">
+    <row r="386" spans="1:7" ht="16">
       <c r="A386" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43817,7 +43849,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="15.75">
+    <row r="387" spans="1:7" ht="16">
       <c r="A387" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43835,7 +43867,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15.75">
+    <row r="388" spans="1:7" ht="16">
       <c r="A388" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43853,7 +43885,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="15.75">
+    <row r="389" spans="1:7" ht="16">
       <c r="A389" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43871,7 +43903,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="15.75">
+    <row r="390" spans="1:7" ht="16">
       <c r="A390" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43889,7 +43921,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="15.75">
+    <row r="391" spans="1:7" ht="16">
       <c r="A391" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43907,7 +43939,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="15.75">
+    <row r="392" spans="1:7" ht="16">
       <c r="A392" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43925,7 +43957,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15.75">
+    <row r="393" spans="1:7" ht="16">
       <c r="A393" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43943,7 +43975,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="15.75">
+    <row r="394" spans="1:7" ht="16">
       <c r="A394" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43961,7 +43993,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="15.75">
+    <row r="395" spans="1:7" ht="16">
       <c r="A395" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43979,7 +44011,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="15.75">
+    <row r="396" spans="1:7" ht="16">
       <c r="A396" s="102" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -43997,7 +44029,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="15.75">
+    <row r="397" spans="1:7" ht="16">
       <c r="A397" s="102" t="str">
         <f t="shared" ref="A397:A460" si="12">IF(B397&lt;&gt;"",TEXT(B397,"TTT"),"")</f>
         <v/>
@@ -44015,7 +44047,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="15.75">
+    <row r="398" spans="1:7" ht="16">
       <c r="A398" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44033,7 +44065,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="15.75">
+    <row r="399" spans="1:7" ht="16">
       <c r="A399" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44051,7 +44083,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="15.75">
+    <row r="400" spans="1:7" ht="16">
       <c r="A400" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44069,7 +44101,7 @@
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15.75">
+    <row r="401" spans="1:7" ht="16">
       <c r="A401" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44087,7 +44119,7 @@
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="15.75">
+    <row r="402" spans="1:7" ht="16">
       <c r="A402" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44105,7 +44137,7 @@
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="15.75">
+    <row r="403" spans="1:7" ht="16">
       <c r="A403" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44123,7 +44155,7 @@
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="15.75">
+    <row r="404" spans="1:7" ht="16">
       <c r="A404" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44141,7 +44173,7 @@
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="15.75">
+    <row r="405" spans="1:7" ht="16">
       <c r="A405" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44159,7 +44191,7 @@
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="15.75">
+    <row r="406" spans="1:7" ht="16">
       <c r="A406" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44177,7 +44209,7 @@
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="15.75">
+    <row r="407" spans="1:7" ht="16">
       <c r="A407" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44195,7 +44227,7 @@
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="15.75">
+    <row r="408" spans="1:7" ht="16">
       <c r="A408" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44213,7 +44245,7 @@
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="15.75">
+    <row r="409" spans="1:7" ht="16">
       <c r="A409" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44231,7 +44263,7 @@
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="15.75">
+    <row r="410" spans="1:7" ht="16">
       <c r="A410" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44249,7 +44281,7 @@
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="15.75">
+    <row r="411" spans="1:7" ht="16">
       <c r="A411" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44267,7 +44299,7 @@
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="15.75">
+    <row r="412" spans="1:7" ht="16">
       <c r="A412" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44285,7 +44317,7 @@
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="15.75">
+    <row r="413" spans="1:7" ht="16">
       <c r="A413" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44303,7 +44335,7 @@
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="15.75">
+    <row r="414" spans="1:7" ht="16">
       <c r="A414" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44321,7 +44353,7 @@
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15.75">
+    <row r="415" spans="1:7" ht="16">
       <c r="A415" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44339,7 +44371,7 @@
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="15.75">
+    <row r="416" spans="1:7" ht="16">
       <c r="A416" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44357,7 +44389,7 @@
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="15.75">
+    <row r="417" spans="1:7" ht="16">
       <c r="A417" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44375,7 +44407,7 @@
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="15.75">
+    <row r="418" spans="1:7" ht="16">
       <c r="A418" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44393,7 +44425,7 @@
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="15.75">
+    <row r="419" spans="1:7" ht="16">
       <c r="A419" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44411,7 +44443,7 @@
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75">
+    <row r="420" spans="1:7" ht="16">
       <c r="A420" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44429,7 +44461,7 @@
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="15.75">
+    <row r="421" spans="1:7" ht="16">
       <c r="A421" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44447,7 +44479,7 @@
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15.75">
+    <row r="422" spans="1:7" ht="16">
       <c r="A422" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44465,7 +44497,7 @@
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15.75">
+    <row r="423" spans="1:7" ht="16">
       <c r="A423" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44483,7 +44515,7 @@
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15.75">
+    <row r="424" spans="1:7" ht="16">
       <c r="A424" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44501,7 +44533,7 @@
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75">
+    <row r="425" spans="1:7" ht="16">
       <c r="A425" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44519,7 +44551,7 @@
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="15.75">
+    <row r="426" spans="1:7" ht="16">
       <c r="A426" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44537,7 +44569,7 @@
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="15.75">
+    <row r="427" spans="1:7" ht="16">
       <c r="A427" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44555,7 +44587,7 @@
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="15.75">
+    <row r="428" spans="1:7" ht="16">
       <c r="A428" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44573,7 +44605,7 @@
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15.75">
+    <row r="429" spans="1:7" ht="16">
       <c r="A429" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44591,7 +44623,7 @@
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="15.75">
+    <row r="430" spans="1:7" ht="16">
       <c r="A430" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44609,7 +44641,7 @@
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="15.75">
+    <row r="431" spans="1:7" ht="16">
       <c r="A431" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44627,7 +44659,7 @@
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="15.75">
+    <row r="432" spans="1:7" ht="16">
       <c r="A432" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44645,7 +44677,7 @@
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15.75">
+    <row r="433" spans="1:7" ht="16">
       <c r="A433" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44663,7 +44695,7 @@
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15.75">
+    <row r="434" spans="1:7" ht="16">
       <c r="A434" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44681,7 +44713,7 @@
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15.75">
+    <row r="435" spans="1:7" ht="16">
       <c r="A435" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44699,7 +44731,7 @@
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="15.75">
+    <row r="436" spans="1:7" ht="16">
       <c r="A436" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44717,7 +44749,7 @@
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="15.75">
+    <row r="437" spans="1:7" ht="16">
       <c r="A437" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44735,7 +44767,7 @@
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15.75">
+    <row r="438" spans="1:7" ht="16">
       <c r="A438" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44753,7 +44785,7 @@
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15.75">
+    <row r="439" spans="1:7" ht="16">
       <c r="A439" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44771,7 +44803,7 @@
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15.75">
+    <row r="440" spans="1:7" ht="16">
       <c r="A440" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44789,7 +44821,7 @@
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="15.75">
+    <row r="441" spans="1:7" ht="16">
       <c r="A441" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44807,7 +44839,7 @@
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="15.75">
+    <row r="442" spans="1:7" ht="16">
       <c r="A442" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44825,7 +44857,7 @@
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15.75">
+    <row r="443" spans="1:7" ht="16">
       <c r="A443" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44843,7 +44875,7 @@
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15.75">
+    <row r="444" spans="1:7" ht="16">
       <c r="A444" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44861,7 +44893,7 @@
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15.75">
+    <row r="445" spans="1:7" ht="16">
       <c r="A445" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44879,7 +44911,7 @@
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="15.75">
+    <row r="446" spans="1:7" ht="16">
       <c r="A446" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44897,7 +44929,7 @@
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="15.75">
+    <row r="447" spans="1:7" ht="16">
       <c r="A447" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44915,7 +44947,7 @@
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="15.75">
+    <row r="448" spans="1:7" ht="16">
       <c r="A448" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44933,7 +44965,7 @@
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="15.75">
+    <row r="449" spans="1:7" ht="16">
       <c r="A449" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44951,7 +44983,7 @@
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="15.75">
+    <row r="450" spans="1:7" ht="16">
       <c r="A450" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44969,7 +45001,7 @@
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="15.75">
+    <row r="451" spans="1:7" ht="16">
       <c r="A451" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -44987,7 +45019,7 @@
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="15.75">
+    <row r="452" spans="1:7" ht="16">
       <c r="A452" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45005,7 +45037,7 @@
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15.75">
+    <row r="453" spans="1:7" ht="16">
       <c r="A453" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45023,7 +45055,7 @@
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15.75">
+    <row r="454" spans="1:7" ht="16">
       <c r="A454" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45041,7 +45073,7 @@
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="15.75">
+    <row r="455" spans="1:7" ht="16">
       <c r="A455" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45059,7 +45091,7 @@
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15.75">
+    <row r="456" spans="1:7" ht="16">
       <c r="A456" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45077,7 +45109,7 @@
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="15.75">
+    <row r="457" spans="1:7" ht="16">
       <c r="A457" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45095,7 +45127,7 @@
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="15.75">
+    <row r="458" spans="1:7" ht="16">
       <c r="A458" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45113,7 +45145,7 @@
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="15.75">
+    <row r="459" spans="1:7" ht="16">
       <c r="A459" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45131,7 +45163,7 @@
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="15.75">
+    <row r="460" spans="1:7" ht="16">
       <c r="A460" s="102" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -45149,7 +45181,7 @@
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="15.75">
+    <row r="461" spans="1:7" ht="16">
       <c r="A461" s="102" t="str">
         <f t="shared" ref="A461:A524" si="14">IF(B461&lt;&gt;"",TEXT(B461,"TTT"),"")</f>
         <v/>
@@ -45167,7 +45199,7 @@
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="15.75">
+    <row r="462" spans="1:7" ht="16">
       <c r="A462" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45185,7 +45217,7 @@
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="15.75">
+    <row r="463" spans="1:7" ht="16">
       <c r="A463" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45203,7 +45235,7 @@
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="15.75">
+    <row r="464" spans="1:7" ht="16">
       <c r="A464" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45221,7 +45253,7 @@
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15.75">
+    <row r="465" spans="1:7" ht="16">
       <c r="A465" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45239,7 +45271,7 @@
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15.75">
+    <row r="466" spans="1:7" ht="16">
       <c r="A466" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45257,7 +45289,7 @@
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15.75">
+    <row r="467" spans="1:7" ht="16">
       <c r="A467" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45275,7 +45307,7 @@
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="15.75">
+    <row r="468" spans="1:7" ht="16">
       <c r="A468" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45293,7 +45325,7 @@
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15.75">
+    <row r="469" spans="1:7" ht="16">
       <c r="A469" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45311,7 +45343,7 @@
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="15.75">
+    <row r="470" spans="1:7" ht="16">
       <c r="A470" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45329,7 +45361,7 @@
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="15.75">
+    <row r="471" spans="1:7" ht="16">
       <c r="A471" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45347,7 +45379,7 @@
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15.75">
+    <row r="472" spans="1:7" ht="16">
       <c r="A472" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45365,7 +45397,7 @@
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15.75">
+    <row r="473" spans="1:7" ht="16">
       <c r="A473" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45383,7 +45415,7 @@
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="15.75">
+    <row r="474" spans="1:7" ht="16">
       <c r="A474" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45401,7 +45433,7 @@
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="15.75">
+    <row r="475" spans="1:7" ht="16">
       <c r="A475" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45419,7 +45451,7 @@
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15.75">
+    <row r="476" spans="1:7" ht="16">
       <c r="A476" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45437,7 +45469,7 @@
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15.75">
+    <row r="477" spans="1:7" ht="16">
       <c r="A477" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45455,7 +45487,7 @@
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15.75">
+    <row r="478" spans="1:7" ht="16">
       <c r="A478" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45473,7 +45505,7 @@
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="15.75">
+    <row r="479" spans="1:7" ht="16">
       <c r="A479" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45491,7 +45523,7 @@
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="15.75">
+    <row r="480" spans="1:7" ht="16">
       <c r="A480" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45509,7 +45541,7 @@
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="15.75">
+    <row r="481" spans="1:7" ht="16">
       <c r="A481" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45527,7 +45559,7 @@
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="15.75">
+    <row r="482" spans="1:7" ht="16">
       <c r="A482" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45545,7 +45577,7 @@
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="15.75">
+    <row r="483" spans="1:7" ht="16">
       <c r="A483" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45563,7 +45595,7 @@
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15.75">
+    <row r="484" spans="1:7" ht="16">
       <c r="A484" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45581,7 +45613,7 @@
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="15.75">
+    <row r="485" spans="1:7" ht="16">
       <c r="A485" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45599,7 +45631,7 @@
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="15.75">
+    <row r="486" spans="1:7" ht="16">
       <c r="A486" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45617,7 +45649,7 @@
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15.75">
+    <row r="487" spans="1:7" ht="16">
       <c r="A487" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45635,7 +45667,7 @@
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="15.75">
+    <row r="488" spans="1:7" ht="16">
       <c r="A488" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45653,7 +45685,7 @@
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="15.75">
+    <row r="489" spans="1:7" ht="16">
       <c r="A489" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45671,7 +45703,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15.75">
+    <row r="490" spans="1:7" ht="16">
       <c r="A490" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45689,7 +45721,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="15.75">
+    <row r="491" spans="1:7" ht="16">
       <c r="A491" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45707,7 +45739,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="15.75">
+    <row r="492" spans="1:7" ht="16">
       <c r="A492" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45725,7 +45757,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15.75">
+    <row r="493" spans="1:7" ht="16">
       <c r="A493" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45743,7 +45775,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15.75">
+    <row r="494" spans="1:7" ht="16">
       <c r="A494" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45761,7 +45793,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="15.75">
+    <row r="495" spans="1:7" ht="16">
       <c r="A495" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45779,7 +45811,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15.75">
+    <row r="496" spans="1:7" ht="16">
       <c r="A496" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45797,7 +45829,7 @@
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="15.75">
+    <row r="497" spans="1:7" ht="16">
       <c r="A497" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45815,7 +45847,7 @@
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="15.75">
+    <row r="498" spans="1:7" ht="16">
       <c r="A498" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45833,7 +45865,7 @@
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="15.75">
+    <row r="499" spans="1:7" ht="16">
       <c r="A499" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45851,7 +45883,7 @@
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="15.75">
+    <row r="500" spans="1:7" ht="16">
       <c r="A500" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45869,7 +45901,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="15.75">
+    <row r="501" spans="1:7" ht="16">
       <c r="A501" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45887,7 +45919,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="15.75">
+    <row r="502" spans="1:7" ht="16">
       <c r="A502" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45905,7 +45937,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="15.75">
+    <row r="503" spans="1:7" ht="16">
       <c r="A503" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45923,7 +45955,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="15.75">
+    <row r="504" spans="1:7" ht="16">
       <c r="A504" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45941,7 +45973,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="15.75">
+    <row r="505" spans="1:7" ht="16">
       <c r="A505" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45959,7 +45991,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="15.75">
+    <row r="506" spans="1:7" ht="16">
       <c r="A506" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45977,7 +46009,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="15.75">
+    <row r="507" spans="1:7" ht="16">
       <c r="A507" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -45995,7 +46027,7 @@
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15.75">
+    <row r="508" spans="1:7" ht="16">
       <c r="A508" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46013,7 +46045,7 @@
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="15.75">
+    <row r="509" spans="1:7" ht="16">
       <c r="A509" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46031,7 +46063,7 @@
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="15.75">
+    <row r="510" spans="1:7" ht="16">
       <c r="A510" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46049,7 +46081,7 @@
         <v/>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="15.75">
+    <row r="511" spans="1:7" ht="16">
       <c r="A511" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46067,7 +46099,7 @@
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="15.75">
+    <row r="512" spans="1:7" ht="16">
       <c r="A512" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46085,7 +46117,7 @@
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15.75">
+    <row r="513" spans="1:7" ht="16">
       <c r="A513" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46103,7 +46135,7 @@
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15.75">
+    <row r="514" spans="1:7" ht="16">
       <c r="A514" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46121,7 +46153,7 @@
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15.75">
+    <row r="515" spans="1:7" ht="16">
       <c r="A515" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46139,7 +46171,7 @@
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="15.75">
+    <row r="516" spans="1:7" ht="16">
       <c r="A516" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46157,7 +46189,7 @@
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="15.75">
+    <row r="517" spans="1:7" ht="16">
       <c r="A517" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46175,7 +46207,7 @@
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15.75">
+    <row r="518" spans="1:7" ht="16">
       <c r="A518" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46193,7 +46225,7 @@
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="15.75">
+    <row r="519" spans="1:7" ht="16">
       <c r="A519" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46211,7 +46243,7 @@
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="15.75">
+    <row r="520" spans="1:7" ht="16">
       <c r="A520" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46229,7 +46261,7 @@
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15.75">
+    <row r="521" spans="1:7" ht="16">
       <c r="A521" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46247,7 +46279,7 @@
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="15.75">
+    <row r="522" spans="1:7" ht="16">
       <c r="A522" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46265,7 +46297,7 @@
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15.75">
+    <row r="523" spans="1:7" ht="16">
       <c r="A523" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46283,7 +46315,7 @@
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="15.75">
+    <row r="524" spans="1:7" ht="16">
       <c r="A524" s="102" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -46301,7 +46333,7 @@
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="15.75">
+    <row r="525" spans="1:7" ht="16">
       <c r="A525" s="102" t="str">
         <f t="shared" ref="A525:A588" si="16">IF(B525&lt;&gt;"",TEXT(B525,"TTT"),"")</f>
         <v/>
@@ -46319,7 +46351,7 @@
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="15.75">
+    <row r="526" spans="1:7" ht="16">
       <c r="A526" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46337,7 +46369,7 @@
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="15.75">
+    <row r="527" spans="1:7" ht="16">
       <c r="A527" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46355,7 +46387,7 @@
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15.75">
+    <row r="528" spans="1:7" ht="16">
       <c r="A528" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46373,7 +46405,7 @@
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="15.75">
+    <row r="529" spans="1:7" ht="16">
       <c r="A529" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46391,7 +46423,7 @@
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15.75">
+    <row r="530" spans="1:7" ht="16">
       <c r="A530" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46409,7 +46441,7 @@
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="15.75">
+    <row r="531" spans="1:7" ht="16">
       <c r="A531" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46427,7 +46459,7 @@
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15.75">
+    <row r="532" spans="1:7" ht="16">
       <c r="A532" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46445,7 +46477,7 @@
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="15.75">
+    <row r="533" spans="1:7" ht="16">
       <c r="A533" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46463,7 +46495,7 @@
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="15.75">
+    <row r="534" spans="1:7" ht="16">
       <c r="A534" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46481,7 +46513,7 @@
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="15.75">
+    <row r="535" spans="1:7" ht="16">
       <c r="A535" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46499,7 +46531,7 @@
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="15.75">
+    <row r="536" spans="1:7" ht="16">
       <c r="A536" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46517,7 +46549,7 @@
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="15.75">
+    <row r="537" spans="1:7" ht="16">
       <c r="A537" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46535,7 +46567,7 @@
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="15.75">
+    <row r="538" spans="1:7" ht="16">
       <c r="A538" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46553,7 +46585,7 @@
         <v/>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="15.75">
+    <row r="539" spans="1:7" ht="16">
       <c r="A539" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46571,7 +46603,7 @@
         <v/>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="15.75">
+    <row r="540" spans="1:7" ht="16">
       <c r="A540" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46589,7 +46621,7 @@
         <v/>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="15.75">
+    <row r="541" spans="1:7" ht="16">
       <c r="A541" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46607,7 +46639,7 @@
         <v/>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="15.75">
+    <row r="542" spans="1:7" ht="16">
       <c r="A542" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46625,7 +46657,7 @@
         <v/>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="15.75">
+    <row r="543" spans="1:7" ht="16">
       <c r="A543" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46643,7 +46675,7 @@
         <v/>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="15.75">
+    <row r="544" spans="1:7" ht="16">
       <c r="A544" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46661,7 +46693,7 @@
         <v/>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="15.75">
+    <row r="545" spans="1:7" ht="16">
       <c r="A545" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46679,7 +46711,7 @@
         <v/>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="15.75">
+    <row r="546" spans="1:7" ht="16">
       <c r="A546" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46697,7 +46729,7 @@
         <v/>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="15.75">
+    <row r="547" spans="1:7" ht="16">
       <c r="A547" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46715,7 +46747,7 @@
         <v/>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="15.75">
+    <row r="548" spans="1:7" ht="16">
       <c r="A548" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46733,7 +46765,7 @@
         <v/>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="15.75">
+    <row r="549" spans="1:7" ht="16">
       <c r="A549" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46751,7 +46783,7 @@
         <v/>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="15.75">
+    <row r="550" spans="1:7" ht="16">
       <c r="A550" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46769,7 +46801,7 @@
         <v/>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="15.75">
+    <row r="551" spans="1:7" ht="16">
       <c r="A551" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46787,7 +46819,7 @@
         <v/>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="15.75">
+    <row r="552" spans="1:7" ht="16">
       <c r="A552" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46805,7 +46837,7 @@
         <v/>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="15.75">
+    <row r="553" spans="1:7" ht="16">
       <c r="A553" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46823,7 +46855,7 @@
         <v/>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="15.75">
+    <row r="554" spans="1:7" ht="16">
       <c r="A554" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46841,7 +46873,7 @@
         <v/>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="15.75">
+    <row r="555" spans="1:7" ht="16">
       <c r="A555" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46859,7 +46891,7 @@
         <v/>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="15.75">
+    <row r="556" spans="1:7" ht="16">
       <c r="A556" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46877,7 +46909,7 @@
         <v/>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="15.75">
+    <row r="557" spans="1:7" ht="16">
       <c r="A557" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46895,7 +46927,7 @@
         <v/>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="15.75">
+    <row r="558" spans="1:7" ht="16">
       <c r="A558" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46913,7 +46945,7 @@
         <v/>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="15.75">
+    <row r="559" spans="1:7" ht="16">
       <c r="A559" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46931,7 +46963,7 @@
         <v/>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="15.75">
+    <row r="560" spans="1:7" ht="16">
       <c r="A560" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46949,7 +46981,7 @@
         <v/>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="15.75">
+    <row r="561" spans="1:7" ht="16">
       <c r="A561" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46967,7 +46999,7 @@
         <v/>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="15.75">
+    <row r="562" spans="1:7" ht="16">
       <c r="A562" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -46985,7 +47017,7 @@
         <v/>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="15.75">
+    <row r="563" spans="1:7" ht="16">
       <c r="A563" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47003,7 +47035,7 @@
         <v/>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="15.75">
+    <row r="564" spans="1:7" ht="16">
       <c r="A564" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47021,7 +47053,7 @@
         <v/>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15.75">
+    <row r="565" spans="1:7" ht="16">
       <c r="A565" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47039,7 +47071,7 @@
         <v/>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="15.75">
+    <row r="566" spans="1:7" ht="16">
       <c r="A566" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47057,7 +47089,7 @@
         <v/>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="15.75">
+    <row r="567" spans="1:7" ht="16">
       <c r="A567" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47075,7 +47107,7 @@
         <v/>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="15.75">
+    <row r="568" spans="1:7" ht="16">
       <c r="A568" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47093,7 +47125,7 @@
         <v/>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="15.75">
+    <row r="569" spans="1:7" ht="16">
       <c r="A569" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47111,7 +47143,7 @@
         <v/>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="15.75">
+    <row r="570" spans="1:7" ht="16">
       <c r="A570" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -47129,7 +47161,7 @@
         <v/>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="15.75">
+    <row r="571" spans="1:7" ht="16">
       <c r="A571" s="102" t="str">
         <f t="shared" si="16"/>
         <v/>
